--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -575,7 +575,7 @@
         <v>44468</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45477.35888888889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45399</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45541</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45541</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>45575</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44551</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>45369.35270833333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>45026</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>44822</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>45400</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45723.44277777777</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45466.63329861111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>45810.41737268519</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44235</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>45113.60486111111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>45385</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>45950</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44235</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>44280</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44278</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44917.42984953704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44559</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44455</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44519.98922453704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44295</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44341</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44397.6375462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44883.45847222222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45016</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>45629.34431712963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44980</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>45595</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>45798.3421875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45690.42671296297</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>45216.47987268519</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>45810.41100694444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45810.43359953703</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45904.5654050926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45917.35021990741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45835.38121527778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>45604.64533564815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>45400</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>45399</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>45568.38174768518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45702.46353009259</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>45324</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>45566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>45982.48730324074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>45450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44319</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>45239</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>45901</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>45755.30336805555</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>45755.3155787037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>46050.80883101852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>44876</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45992</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>45009.35950231482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>45147</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44942</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>45399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>45169.50775462963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45594.41554398148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45328</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>45690.4250925926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>45225.75832175926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45393.63238425926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>45635.37515046296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45191</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44270.60216435185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44353</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44337</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>44411</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>44385.34373842592</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>44609.71396990741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>44449</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44477</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44564</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>44827</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44827.63002314815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>44833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>44520.0127662037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>44356.47372685185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>44452.60662037037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>44564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44252</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>44608</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>44249</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44676</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44385.36721064815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44375</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44480</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>44712.57193287037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>44809.4018287037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>44385.31377314815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>44831</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>44532.64408564815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44536</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44839.48378472222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>44490.51148148148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44468</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>44700.38892361111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44673</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>44631.46762731481</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>44490</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>44831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>44831.75778935185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>44456</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44295</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44308</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>44488.42239583333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44582</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44833</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44274</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>44368.45892361111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>44420</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>44266.58711805556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>44375</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44594</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44594</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44831.31585648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44452.59549768519</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44462.45162037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44526.35113425926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44490.5975925926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44420</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44447</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44438</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44811</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44357.37903935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44428.88928240741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44296.53390046296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44827</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44490.34951388889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44683</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44743.57672453704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>44552</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>44755</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>44274.57768518518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>44593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44496</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44441</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44519.98100694444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44519.99180555555</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44520.006875</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44473</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44532</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44532.58314814815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44617.44810185185</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44375</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44552.67385416666</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44741</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44420</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44386</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44686</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>44526</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44825.34015046297</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44643</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44263</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>44426</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44350.91193287037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>44434</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>44612</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44794</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44532</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44531.36721064815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>44484</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>44278</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>44320</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>44712</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>44419</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44645</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>45736</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>44794</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>44992.64321759259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>45477.37200231481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45537.59931712963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44609.71230324074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>45063</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>45132</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45442.46103009259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>44868.66078703704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>44958.45609953703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>44236</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45363.47704861111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45695.56203703704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>45695.5696875</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45197.40341435185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44651</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>45735.35653935185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>45352.49944444445</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>45127</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>45008.48836805556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>45749.37798611111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>45744</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>45610.63998842592</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44610</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45743.36407407407</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>45743.38579861111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44960.49487268519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>45610.65568287037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44963.33652777778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>45618</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>45180</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>45355</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44992.63921296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>45685.52724537037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>45748.61495370371</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>45566</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44473</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>45573.46162037037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>45041.6187037037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45085</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44896.59528935186</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45335.48046296297</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45191.34582175926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45637</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45310</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45566.4780787037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45184</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45194</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45715.48555555556</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44903.47134259259</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45370.3781712963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>45399.44796296296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>45730.33476851852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44981.40186342593</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44811.44258101852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>45512</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44949.44762731482</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>45748.37739583333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44519.98293981481</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45335.45155092593</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44473</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45432</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45376.49780092593</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44942</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44935</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45677</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45735.35633101852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45103.64168981482</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45197.60594907407</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45799.41569444445</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>45624.42489583333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>45638</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>45414</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>45649.56431712963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>45743</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>45321.48475694445</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>45637.58633101852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>45271.88459490741</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>45800.50819444445</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>45539.61945601852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>45803.44508101852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>45803.44677083333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>45505</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>45266.36511574074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>45884.5909375</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44894</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>45719.30990740741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>45693.56089120371</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45805.41023148148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45568.35815972222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>45842.68615740741</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>45216</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>45810.44914351852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>45539</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>45810.45978009259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>45604.64454861111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>45467.48708333333</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>45742.52042824074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44970.8662962963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>45442.48394675926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>45439.56127314815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45677</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44827</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>45813.45608796296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45889.67118055555</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>45810.579375</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45455.53951388889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45813.45994212963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45812.57268518519</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>45812.57512731481</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>45681.59012731481</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>45812.5667824074</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44827</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45812.57081018519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45735.63356481482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>45895.51850694444</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>45894.65247685185</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>45155.60460648148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45660</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45616.46331018519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44593</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45477.44527777778</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45146.34890046297</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45412.30461805555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45341</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45819.56673611111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45818.50829861111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45817.8397337963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45901</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45218</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45615.62094907407</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45554.4112037037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45903.49077546296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>45702.47150462963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>45903.67501157407</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>45715.6405787037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>45729.46997685185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44975.87836805556</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>45902.32299768519</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>45903.70535879629</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>45622.35957175926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45905</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45726.75759259259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45324</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         <v>45713.37621527778</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>45723.43553240741</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45905.43545138889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45169.62482638889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45086.64048611111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45824.46417824074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45908</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45825</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>45908</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>45908</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>45825</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>45680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45909.54364583334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45909.55575231482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45909.56019675926</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>45825</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>45070.64072916667</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>45723.44528935185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>45909.54929398148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44484</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>45841</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>45841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44781.91173611111</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>45841</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>45776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>45008.45369212963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>45910.45300925926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>45911.45987268518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>45827.38844907407</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>45827.45986111111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>45826.38826388889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>45827.45690972222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45912.65081018519</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45034.31502314815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45915.34211805555</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45047.82030092592</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45827.44914351852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>45827.45063657407</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45827.45379629629</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45827.40579861111</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>45013</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>45827.47229166667</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>45908</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45908</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45908</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45714.74789351852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44818.62078703703</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>45047</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>45826.38912037037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>45916.50309027778</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45827.46381944444</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45916.54130787037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>45831.30805555556</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>45719.31096064814</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45831</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45918</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>45715.49478009259</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>45918</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>45918</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44614</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>45831.51925925926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>45755.29065972222</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44373</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45216</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>45635.38275462963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45923.45716435185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45923.5996875</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>45923.60820601852</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45923.58434027778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45923.58523148148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>45923.5972337963</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>45923.64820601852</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>45923.60203703704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>45923.60518518519</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>45923.61215277778</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>45923.64208333333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>45923.64613425926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>45922</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>45923.59324074074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>45923.61527777778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>45923.61694444445</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44526</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>45925.64199074074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>45925.64373842593</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27088,7 +27088,7 @@
         <v>45925.6472337963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>45925.64577546297</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27212,7 +27212,7 @@
         <v>45079</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>45833.32947916666</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27326,7 +27326,7 @@
         <v>45924.43762731482</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27383,7 +27383,7 @@
         <v>45925.64988425926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27445,7 +27445,7 @@
         <v>45925.65148148148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>45833</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>45923.90313657407</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>45924.44417824074</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>45719.31196759259</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>45834.56986111111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>45834.53106481482</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>45834.566875</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>45488.47798611111</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>45929.59570601852</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28020,7 +28020,7 @@
         <v>45929.60078703704</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44439</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>45926.35856481481</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45929.63125</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>45929.59108796297</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45929.59836805556</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>45929.60376157407</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>45730.32494212963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>45723.4478125</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44468</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>45834.65643518518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>44749</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>44826</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>45390</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>44824</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44496.5093287037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>45931.62912037037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>45931.63143518518</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>45931.63373842592</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>45481</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>45360.69631944445</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>45838.53700231481</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>45932.38508101852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44834</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>45442.59461805555</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>45715</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>45936.61630787037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>45936.66126157407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>45209</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29708,7 +29708,7 @@
         <v>45936.60224537037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29765,7 +29765,7 @@
         <v>45582</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         <v>45936.61366898148</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29884,7 +29884,7 @@
         <v>45218.40142361111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>45937.35290509259</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29998,7 +29998,7 @@
         <v>45372.51892361111</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>44963.62231481481</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>44547.48429398148</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>45160.60979166667</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         <v>44939</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>45121.60563657407</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>45152.54458333334</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>45168</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>45939.35864583333</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>45937.3575462963</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>44882</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>45845.63357638889</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>45845.58313657407</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45197.62081018519</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>44819</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>45940.56796296296</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45252</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44991.57855324074</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45575</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>45945.46298611111</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45348.39001157408</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>45843.54559027778</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45842.68381944444</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45945.64921296296</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45573.45638888889</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45169.61795138889</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45944.41302083333</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45944.40952546296</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45905</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44235.39321759259</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45947.35587962963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45947.35896990741</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45947.43758101852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45852.91319444445</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45951.63486111111</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>44375</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32075,7 +32075,7 @@
         <v>45247</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32132,7 +32132,7 @@
         <v>45952.81864583334</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32189,7 +32189,7 @@
         <v>45813.44929398148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32246,7 +32246,7 @@
         <v>45618</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32303,7 +32303,7 @@
         <v>45952.49591435185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>45952.81768518518</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32417,7 +32417,7 @@
         <v>45695.56664351852</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44999</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44655</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>45621.44763888889</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>45259.37826388889</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>45834.54039351852</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>45813.52047453704</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>45873.39606481481</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44995</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44964.61778935185</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>45335</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>45959.42605324074</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44825.32336805556</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45629.43613425926</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>45714.74952546296</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>45959.48748842593</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>45958.67726851852</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>45026</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>45961.43857638889</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33515,7 +33515,7 @@
         <v>45826.52912037037</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33572,7 +33572,7 @@
         <v>45961.4405787037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>45161.48927083334</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45961.44376157408</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>45961.44804398148</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>45961.43423611111</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>45961.44523148148</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33939,7 +33939,7 @@
         <v>45961.43681712963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34001,7 +34001,7 @@
         <v>45412.60458333333</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45961.43260416666</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34120,7 +34120,7 @@
         <v>45961.44221064815</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45965.30561342592</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>45965.30861111111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         <v>45964</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         <v>45248</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34420,7 +34420,7 @@
         <v>45881.60173611111</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>44685.48431712963</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34534,7 +34534,7 @@
         <v>45880.63050925926</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34591,7 +34591,7 @@
         <v>45966.56153935185</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34648,7 +34648,7 @@
         <v>45505</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>45505</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>45852.91453703704</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>45054</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34876,7 +34876,7 @@
         <v>45091.65386574074</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>45715.64556712963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34995,7 +34995,7 @@
         <v>45971</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35052,7 +35052,7 @@
         <v>45971.81322916667</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         <v>45971.83403935185</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35166,7 +35166,7 @@
         <v>45484.55672453704</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35223,7 +35223,7 @@
         <v>45973.49765046296</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35280,7 +35280,7 @@
         <v>45971.81769675926</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35337,7 +35337,7 @@
         <v>45538</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35394,7 +35394,7 @@
         <v>45169.62340277778</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35451,7 +35451,7 @@
         <v>44705.43685185185</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35508,7 +35508,7 @@
         <v>45975.39666666667</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35565,7 +35565,7 @@
         <v>45755.31439814815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35622,7 +35622,7 @@
         <v>45267.28141203704</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35684,7 +35684,7 @@
         <v>45884.45627314815</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45185.6368287037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>44966</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45153</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45887.65018518519</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45695.55989583334</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36031,7 +36031,7 @@
         <v>45156</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36088,7 +36088,7 @@
         <v>45979</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36145,7 +36145,7 @@
         <v>46020.79466435185</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36202,7 +36202,7 @@
         <v>45726.47065972222</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>45726.56298611111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>44565</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>45980.65592592592</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36435,7 +36435,7 @@
         <v>45013.3293287037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>45412.45262731481</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>45714.74612268519</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         <v>45754.50134259259</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>45054</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>45982.48302083334</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>45982.52304398148</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>45982.50164351852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36896,7 +36896,7 @@
         <v>45769.41255787037</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45624.98180555556</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45982.45975694444</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45771.4725925926</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37134,7 +37134,7 @@
         <v>44830.4331712963</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37191,7 +37191,7 @@
         <v>45547.37052083333</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37248,7 +37248,7 @@
         <v>44470</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37305,7 +37305,7 @@
         <v>46029.46618055556</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37362,7 +37362,7 @@
         <v>45238</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37424,7 +37424,7 @@
         <v>45744</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37481,7 +37481,7 @@
         <v>45477.42023148148</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37538,7 +37538,7 @@
         <v>46031.84211805555</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37595,7 +37595,7 @@
         <v>46030.51246527778</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37652,7 +37652,7 @@
         <v>45743.3609375</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37709,7 +37709,7 @@
         <v>46030.66420138889</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37766,7 +37766,7 @@
         <v>46020</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37823,7 +37823,7 @@
         <v>45248.819375</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37880,7 +37880,7 @@
         <v>45168.62385416667</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37937,7 +37937,7 @@
         <v>46031.57112268519</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37994,7 +37994,7 @@
         <v>45190.34791666667</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38051,7 +38051,7 @@
         <v>46034.39335648148</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38108,7 +38108,7 @@
         <v>46035.41517361111</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38165,7 +38165,7 @@
         <v>46034.34087962963</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38222,7 +38222,7 @@
         <v>46034.33364583334</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38279,7 +38279,7 @@
         <v>45698.611875</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>44474.46346064815</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38393,7 +38393,7 @@
         <v>45477.36236111111</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38450,7 +38450,7 @@
         <v>45723.44018518519</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38512,7 +38512,7 @@
         <v>46034</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38569,7 +38569,7 @@
         <v>45153</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         <v>45315.42144675926</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         <v>45995.4803125</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38740,7 +38740,7 @@
         <v>45999.4159375</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>44958.45834490741</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>45180</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38911,7 +38911,7 @@
         <v>44970.31702546297</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38968,7 +38968,7 @@
         <v>45278.50741898148</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39025,7 +39025,7 @@
         <v>44881.37020833333</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39082,7 +39082,7 @@
         <v>45268.57443287037</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39139,7 +39139,7 @@
         <v>44928.49331018519</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39196,7 +39196,7 @@
         <v>45755.29387731481</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39258,7 +39258,7 @@
         <v>46041</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39315,7 +39315,7 @@
         <v>46038.62665509259</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39372,7 +39372,7 @@
         <v>45999.42359953704</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39429,7 +39429,7 @@
         <v>45742.63379629629</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39486,7 +39486,7 @@
         <v>45302.27971064814</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>45628.73400462963</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39600,7 +39600,7 @@
         <v>45691.36315972222</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39657,7 +39657,7 @@
         <v>44530.34732638889</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39714,7 +39714,7 @@
         <v>44530.35085648148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39771,7 +39771,7 @@
         <v>46043.64356481482</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39828,7 +39828,7 @@
         <v>45352.51495370371</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39885,7 +39885,7 @@
         <v>46043.67475694444</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39942,7 +39942,7 @@
         <v>45566.48396990741</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39999,7 +39999,7 @@
         <v>45566.48729166666</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40056,7 +40056,7 @@
         <v>46043.64524305556</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40113,7 +40113,7 @@
         <v>46044.61240740741</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40170,7 +40170,7 @@
         <v>45103</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40227,7 +40227,7 @@
         <v>46044.54488425926</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40284,7 +40284,7 @@
         <v>45703.40652777778</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40346,7 +40346,7 @@
         <v>46044.60320601852</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40403,7 +40403,7 @@
         <v>46044.60550925926</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40460,7 +40460,7 @@
         <v>44740.59510416666</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40517,7 +40517,7 @@
         <v>46048.97453703704</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>45239.30261574074</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>45477.36623842592</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>46048.99026620371</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>46048.97947916666</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>46005.76400462963</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40859,7 +40859,7 @@
         <v>46048.96581018518</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40916,7 +40916,7 @@
         <v>44537.4409375</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40973,7 +40973,7 @@
         <v>46005.75408564815</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41030,7 +41030,7 @@
         <v>45741.47322916667</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41092,7 +41092,7 @@
         <v>45149</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41149,7 +41149,7 @@
         <v>45149</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41206,7 +41206,7 @@
         <v>46008.53185185185</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41263,7 +41263,7 @@
         <v>45054</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41320,7 +41320,7 @@
         <v>46008.59555555556</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41377,7 +41377,7 @@
         <v>45175</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41434,7 +41434,7 @@
         <v>45188.538125</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         <v>46050.8391550926</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>46008.62778935185</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44349</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45185</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>46050.83611111111</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>46050.84315972222</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>46008.53971064815</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>46051.42302083333</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45194</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45050.42804398148</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>46010.35197916667</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>46010.35797453704</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45307</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45594.44086805556</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>46010.36451388889</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45135.42358796296</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>46052.60876157408</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45271.41395833333</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>44498.49251157408</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45194</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>44719</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45237</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>44592</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>44831</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>44732.66290509259</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45726.48642361111</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43040,7 +43040,7 @@
         <v>44502</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43097,7 +43097,7 @@
         <v>45511.45795138889</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43154,7 +43154,7 @@
         <v>45340.92813657408</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43211,7 +43211,7 @@
         <v>45340.93671296296</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43268,7 +43268,7 @@
         <v>45359.35763888889</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43325,7 +43325,7 @@
         <v>45081.89592592593</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43382,7 +43382,7 @@
         <v>44951.89928240741</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43439,7 +43439,7 @@
         <v>46013.79969907407</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43496,7 +43496,7 @@
         <v>45729.481875</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43553,7 +43553,7 @@
         <v>45390</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43610,7 +43610,7 @@
         <v>46058.65725694445</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43667,7 +43667,7 @@
         <v>46058.68710648148</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43724,7 +43724,7 @@
         <v>46058.5681712963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43781,7 +43781,7 @@
         <v>44889.47004629629</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43838,7 +43838,7 @@
         <v>46058</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43895,7 +43895,7 @@
         <v>45168</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43952,7 +43952,7 @@
         <v>45573.00284722223</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44009,7 +44009,7 @@
         <v>45225</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         <v>45048</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44123,7 +44123,7 @@
         <v>45259.3803125</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44180,7 +44180,7 @@
         <v>44901</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44242,7 +44242,7 @@
         <v>45378.62289351852</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         <v>45156</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44356,7 +44356,7 @@
         <v>45328.46377314815</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44413,7 +44413,7 @@
         <v>44916.57162037037</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44470,7 +44470,7 @@
         <v>45559.50409722222</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44527,7 +44527,7 @@
         <v>45569.49569444444</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44584,7 +44584,7 @@
         <v>44816.82284722223</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44641,7 +44641,7 @@
         <v>45690.4284375</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44703,7 +44703,7 @@
         <v>44526.36217592593</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44760,7 +44760,7 @@
         <v>45168</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44817,7 +44817,7 @@
         <v>45104.52766203704</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44874,7 +44874,7 @@
         <v>45360.69721064815</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44936,7 +44936,7 @@
         <v>45532.65594907408</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44998,7 +44998,7 @@
         <v>44482.36085648148</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45055,7 +45055,7 @@
         <v>45194</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45112,7 +45112,7 @@
         <v>45656.40385416667</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>45238</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45236,7 +45236,7 @@
         <v>45205</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45293,7 +45293,7 @@
         <v>45280</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45350,7 +45350,7 @@
         <v>45420</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45407,7 +45407,7 @@
         <v>45615.59752314815</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45464,7 +45464,7 @@
         <v>44831.66966435185</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45521,7 +45521,7 @@
         <v>45477.3924537037</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45578,7 +45578,7 @@
         <v>45541.52309027778</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45640,7 +45640,7 @@
         <v>45209.55802083333</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45702,7 +45702,7 @@
         <v>44998.50371527778</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45764,7 +45764,7 @@
         <v>45174</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45821,7 +45821,7 @@
         <v>45189.84020833333</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45878,7 +45878,7 @@
         <v>45170.45482638889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>44880</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>45447</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46049,7 +46049,7 @@
         <v>45610.66920138889</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46106,7 +46106,7 @@
         <v>45266.45414351852</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>44876</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45049</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46277,7 +46277,7 @@
         <v>44994.54207175926</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46334,7 +46334,7 @@
         <v>44994</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46391,7 +46391,7 @@
         <v>44529</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46448,7 +46448,7 @@
         <v>44952.49959490741</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46505,7 +46505,7 @@
         <v>44546.67575231481</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46562,7 +46562,7 @@
         <v>45705.66491898148</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46619,7 +46619,7 @@
         <v>45370.55523148148</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>45715</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46733,7 +46733,7 @@
         <v>45271.40059027778</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46790,7 +46790,7 @@
         <v>45099</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46847,7 +46847,7 @@
         <v>44516</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46904,7 +46904,7 @@
         <v>45580.70136574074</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46961,7 +46961,7 @@
         <v>45152.34190972222</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47018,7 +47018,7 @@
         <v>45638.48775462963</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47080,7 +47080,7 @@
         <v>45182</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47137,7 +47137,7 @@
         <v>45252.44798611111</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47199,7 +47199,7 @@
         <v>45134</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47256,7 +47256,7 @@
         <v>44564.80535879629</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47313,7 +47313,7 @@
         <v>45152</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47370,7 +47370,7 @@
         <v>44999.48005787037</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47427,7 +47427,7 @@
         <v>45180.46920138889</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47484,7 +47484,7 @@
         <v>44260</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47546,7 +47546,7 @@
         <v>45104.82601851852</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47603,7 +47603,7 @@
         <v>45016</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47660,7 +47660,7 @@
         <v>45569</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47717,7 +47717,7 @@
         <v>45406</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47774,7 +47774,7 @@
         <v>45016.51652777778</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47831,7 +47831,7 @@
         <v>45391.33564814815</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47888,7 +47888,7 @@
         <v>45391.33994212963</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47945,7 +47945,7 @@
         <v>45257.7815625</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48007,7 +48007,7 @@
         <v>45693.5546875</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48064,7 +48064,7 @@
         <v>45693.55793981482</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48121,7 +48121,7 @@
         <v>45755.29855324074</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48183,7 +48183,7 @@
         <v>45455.5603587963</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48240,7 +48240,7 @@
         <v>44994.45324074074</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48297,7 +48297,7 @@
         <v>45340.86449074074</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48354,7 +48354,7 @@
         <v>45019.36079861111</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48411,7 +48411,7 @@
         <v>45408.4359837963</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48468,7 +48468,7 @@
         <v>45168</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48530,7 +48530,7 @@
         <v>45420.39489583333</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48587,7 +48587,7 @@
         <v>45703.40883101852</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48649,7 +48649,7 @@
         <v>45610.67653935185</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         <v>44725</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         <v>45129.80059027778</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48820,7 +48820,7 @@
         <v>45092</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48877,7 +48877,7 @@
         <v>44732</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48939,7 +48939,7 @@
         <v>44300</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48996,7 +48996,7 @@
         <v>45260.47619212963</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49058,7 +49058,7 @@
         <v>45260.47771990741</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49120,7 +49120,7 @@
         <v>45147.70241898148</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49177,7 +49177,7 @@
         <v>45642.5578125</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49234,7 +49234,7 @@
         <v>45096.90421296296</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49291,7 +49291,7 @@
         <v>45273</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49348,7 +49348,7 @@
         <v>45168</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49405,7 +49405,7 @@
         <v>44893</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49467,7 +49467,7 @@
         <v>45439.58288194444</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49524,7 +49524,7 @@
         <v>44258</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49581,7 +49581,7 @@
         <v>45071</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49638,7 +49638,7 @@
         <v>45081.91804398148</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49695,7 +49695,7 @@
         <v>45309.80746527778</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49752,7 +49752,7 @@
         <v>45048.37384259259</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49809,7 +49809,7 @@
         <v>45691.36478009259</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49866,7 +49866,7 @@
         <v>45225.76035879629</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49923,7 +49923,7 @@
         <v>44862</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49985,7 +49985,7 @@
         <v>44994.45459490741</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50042,7 +50042,7 @@
         <v>45273.28496527778</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50099,7 +50099,7 @@
         <v>45247</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50156,7 +50156,7 @@
         <v>44438</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45019.37908564815</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50270,7 +50270,7 @@
         <v>44530</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50327,7 +50327,7 @@
         <v>45250.44482638889</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50384,7 +50384,7 @@
         <v>45681.58489583333</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50441,7 +50441,7 @@
         <v>45681.59599537037</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50498,7 +50498,7 @@
         <v>44252</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50560,7 +50560,7 @@
         <v>44971.36787037037</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50617,7 +50617,7 @@
         <v>45638.49185185185</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50679,7 +50679,7 @@
         <v>45216.54601851852</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50736,7 +50736,7 @@
         <v>45524.63563657407</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50793,7 +50793,7 @@
         <v>45646.56480324074</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50850,7 +50850,7 @@
         <v>45318.64234953704</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50907,7 +50907,7 @@
         <v>45427</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50964,7 +50964,7 @@
         <v>45129.79834490741</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         <v>44725</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51078,7 +51078,7 @@
         <v>45755.30921296297</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51135,7 +51135,7 @@
         <v>45755.31265046296</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51192,7 +51192,7 @@
         <v>44999.36128472222</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51249,7 +51249,7 @@
         <v>44928.4900462963</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51306,7 +51306,7 @@
         <v>44928</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51368,7 +51368,7 @@
         <v>45566.4808449074</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51425,7 +51425,7 @@
         <v>45229</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51482,7 +51482,7 @@
         <v>44827</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51539,7 +51539,7 @@
         <v>45153.62142361111</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51596,7 +51596,7 @@
         <v>45706.50239583333</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51653,7 +51653,7 @@
         <v>45628.72706018519</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51710,7 +51710,7 @@
         <v>45771.58767361111</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51767,7 +51767,7 @@
         <v>45783.43402777778</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51824,7 +51824,7 @@
         <v>45789.49431712963</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51881,7 +51881,7 @@
         <v>45714.66180555556</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51938,7 +51938,7 @@
         <v>45727.37675925926</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51995,7 +51995,7 @@
         <v>45790.45359953704</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -575,7 +575,7 @@
         <v>44468</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45477.35888888889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45399</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45541</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45541</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>45575</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44551</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>45369.35270833333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>45026</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>44822</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>45400</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45723.44277777777</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45466.63329861111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>45810.41737268519</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44235</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>45113.60486111111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>45385</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>45950</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44235</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>44280</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44278</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44917.42984953704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44559</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44455</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44519.98922453704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44295</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44341</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44397.6375462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44883.45847222222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45016</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>45629.34431712963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44980</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>45595</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>45798.3421875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45690.42671296297</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>45216.47987268519</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>45810.41100694444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45810.43359953703</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45904.5654050926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45917.35021990741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45835.38121527778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>45604.64533564815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>45400</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>45399</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>45568.38174768518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45702.46353009259</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>45324</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>45566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>45982.48730324074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>45450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44319</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>45239</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>45901</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>45755.30336805555</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>45755.3155787037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>46050.80883101852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>44876</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45992</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>45009.35950231482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>45147</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44942</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>45399</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>45169.50775462963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45594.41554398148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45328</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>45690.4250925926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>45225.75832175926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45393.63238425926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>45635.37515046296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45191</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44270.60216435185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44353</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44337</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>44411</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>44385.34373842592</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>44609.71396990741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>44449</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44477</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44564</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>44827</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44827.63002314815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>44833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>44520.0127662037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>44356.47372685185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>44452.60662037037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>44564</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44252</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>44608</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>44249</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44676</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44385.36721064815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44375</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44480</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>44712.57193287037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>44809.4018287037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>44385.31377314815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>44831</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>44532.64408564815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44536</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44839.48378472222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>44490.51148148148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44468</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>44700.38892361111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44673</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>44631.46762731481</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>44490</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>44831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>44831.75778935185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>44456</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44295</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44308</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>44488.42239583333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44582</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44833</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44274</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>44368.45892361111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>44420</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>44266.58711805556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>44375</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44594</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44594</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44831.31585648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44452.59549768519</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44462.45162037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44526.35113425926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44490.5975925926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44420</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44447</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44438</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44811</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44357.37903935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44428.88928240741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44296.53390046296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44827</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44490.34951388889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44683</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44743.57672453704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>44552</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>44755</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>44274.57768518518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>44593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44496</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44441</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44519.98100694444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44519.99180555555</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44520.006875</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44473</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44532</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44532.58314814815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44617.44810185185</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44375</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44552.67385416666</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44741</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44420</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44386</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44686</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>44526</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44825.34015046297</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44643</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44263</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>44426</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44350.91193287037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>44434</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>44612</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44794</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44532</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44531.36721064815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>44484</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>44278</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>44320</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>44712</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>44419</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44645</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>45736</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>44794</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>44992.64321759259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>45477.37200231481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45537.59931712963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44609.71230324074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>45063</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>45132</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45442.46103009259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>44868.66078703704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>44958.45609953703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>44236</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45363.47704861111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45695.56203703704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>45695.5696875</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45197.40341435185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44651</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>45735.35653935185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>45352.49944444445</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>45127</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>45008.48836805556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>45749.37798611111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>45744</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>45610.63998842592</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44610</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45743.36407407407</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>45743.38579861111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44960.49487268519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>45610.65568287037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44963.33652777778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>45618</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>45180</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>45355</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44992.63921296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>45685.52724537037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>45748.61495370371</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>45566</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44473</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>45573.46162037037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>45041.6187037037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45085</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44896.59528935186</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45335.48046296297</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45191.34582175926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45637</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45310</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45566.4780787037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45184</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45194</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45715.48555555556</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44903.47134259259</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45370.3781712963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>45399.44796296296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>45730.33476851852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44981.40186342593</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44811.44258101852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>45512</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44949.44762731482</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>45748.37739583333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44519.98293981481</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45335.45155092593</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44473</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45432</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45376.49780092593</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44942</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44935</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45677</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45735.35633101852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45103.64168981482</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45197.60594907407</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45799.41569444445</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>45624.42489583333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>45638</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>45414</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>45649.56431712963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>45743</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>45321.48475694445</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>45637.58633101852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>45271.88459490741</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>45800.50819444445</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>45539.61945601852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>45803.44508101852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>45803.44677083333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>45505</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>45266.36511574074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>45884.5909375</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44894</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>45719.30990740741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>45693.56089120371</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45805.41023148148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45568.35815972222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>45842.68615740741</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>45216</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>45810.44914351852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>45539</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>45810.45978009259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>45604.64454861111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>45467.48708333333</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>45742.52042824074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44970.8662962963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>45442.48394675926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>45439.56127314815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45677</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44827</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>45813.45608796296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45889.67118055555</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>45810.579375</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45455.53951388889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45813.45994212963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45812.57268518519</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>45812.57512731481</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>45681.59012731481</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>45812.5667824074</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44827</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45812.57081018519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45735.63356481482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>45895.51850694444</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>45894.65247685185</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>45155.60460648148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45660</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45616.46331018519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44593</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45477.44527777778</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45146.34890046297</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45412.30461805555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45341</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45819.56673611111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45818.50829861111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45817.8397337963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45901</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45218</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45615.62094907407</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45554.4112037037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45903.49077546296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>45702.47150462963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>45903.67501157407</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>45715.6405787037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>45729.46997685185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44975.87836805556</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>45902.32299768519</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>45903.70535879629</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>45622.35957175926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45905</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45726.75759259259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45324</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         <v>45713.37621527778</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>45723.43553240741</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45905.43545138889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45169.62482638889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44447</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45086.64048611111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45824.46417824074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45908</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45825</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>45908</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>45908</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>45825</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>45680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45909.54364583334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45909.55575231482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45909.56019675926</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>45825</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>45070.64072916667</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>45723.44528935185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>45909.54929398148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44484</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>45841</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>45841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44781.91173611111</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>45841</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>45776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>45008.45369212963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>45910.45300925926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>45911.45987268518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>45827.38844907407</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>45827.45986111111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>45826.38826388889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>45827.45690972222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45912.65081018519</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45034.31502314815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45915.34211805555</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45047.82030092592</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45827.44914351852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>45827.45063657407</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45827.45379629629</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45827.40579861111</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>45013</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>45827.47229166667</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>45908</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45908</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45908</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45714.74789351852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44818.62078703703</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>45047</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>45826.38912037037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>45916.50309027778</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45827.46381944444</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45916.54130787037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>45831.30805555556</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>45719.31096064814</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45831</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45918</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>45715.49478009259</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>45918</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>45918</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44614</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>45831.51925925926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>45755.29065972222</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44373</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45216</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>45635.38275462963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45923.45716435185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45923.5996875</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>45923.60820601852</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45923.58434027778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45923.58523148148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>45923.5972337963</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>45923.64820601852</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>45923.60203703704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>45923.60518518519</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>45923.61215277778</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>45923.64208333333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>45923.64613425926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>45922</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>45923.59324074074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>45923.61527777778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>45923.61694444445</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44526</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>45925.64199074074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>45925.64373842593</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27088,7 +27088,7 @@
         <v>45925.6472337963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>45925.64577546297</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27212,7 +27212,7 @@
         <v>45079</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>45833.32947916666</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27326,7 +27326,7 @@
         <v>45924.43762731482</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27383,7 +27383,7 @@
         <v>45925.64988425926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27445,7 +27445,7 @@
         <v>45925.65148148148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>45833</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>45923.90313657407</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>45924.44417824074</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>45719.31196759259</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>45834.56986111111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>45834.53106481482</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>45834.566875</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>45488.47798611111</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>45929.59570601852</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28020,7 +28020,7 @@
         <v>45929.60078703704</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44439</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>45926.35856481481</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45929.63125</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>45929.59108796297</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45929.59836805556</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>45929.60376157407</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>45730.32494212963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>45723.4478125</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44468</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>45834.65643518518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>44749</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>44826</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>45390</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>44824</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44496.5093287037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>45931.62912037037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>45931.63143518518</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>45931.63373842592</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>45481</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>45360.69631944445</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>45838.53700231481</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>45932.38508101852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44834</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>45442.59461805555</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>45715</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>45936.61630787037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>45936.66126157407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>45209</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29708,7 +29708,7 @@
         <v>45936.60224537037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29765,7 +29765,7 @@
         <v>45582</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         <v>45936.61366898148</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29884,7 +29884,7 @@
         <v>45218.40142361111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>45937.35290509259</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29998,7 +29998,7 @@
         <v>45372.51892361111</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>44963.62231481481</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>44547.48429398148</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>45160.60979166667</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         <v>44939</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>45121.60563657407</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>45152.54458333334</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>45168</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>45939.35864583333</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>45937.3575462963</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>44882</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>45845.63357638889</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>45845.58313657407</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45197.62081018519</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>44819</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>45940.56796296296</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45252</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44991.57855324074</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45575</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>45945.46298611111</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45348.39001157408</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>45843.54559027778</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45842.68381944444</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45945.64921296296</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45573.45638888889</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45169.61795138889</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45944.41302083333</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45944.40952546296</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45905</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44235.39321759259</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45947.35587962963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45947.35896990741</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45947.43758101852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45852.91319444445</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45951.63486111111</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>44375</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32075,7 +32075,7 @@
         <v>45247</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32132,7 +32132,7 @@
         <v>45952.81864583334</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32189,7 +32189,7 @@
         <v>45813.44929398148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32246,7 +32246,7 @@
         <v>45618</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32303,7 +32303,7 @@
         <v>45952.49591435185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>45952.81768518518</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32417,7 +32417,7 @@
         <v>45695.56664351852</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44999</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44655</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>45621.44763888889</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>45259.37826388889</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>45834.54039351852</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>45813.52047453704</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>45873.39606481481</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44995</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44964.61778935185</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>45335</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>45959.42605324074</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44825.32336805556</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45629.43613425926</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>45714.74952546296</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>45959.48748842593</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>45958.67726851852</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>45026</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>45961.43857638889</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33515,7 +33515,7 @@
         <v>45826.52912037037</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33572,7 +33572,7 @@
         <v>45961.4405787037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>45161.48927083334</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45961.44376157408</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>45961.44804398148</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>45961.43423611111</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>45961.44523148148</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33939,7 +33939,7 @@
         <v>45961.43681712963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34001,7 +34001,7 @@
         <v>45412.60458333333</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45961.43260416666</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34120,7 +34120,7 @@
         <v>45961.44221064815</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45965.30561342592</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>45965.30861111111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         <v>45964</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         <v>45248</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34420,7 +34420,7 @@
         <v>45881.60173611111</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>44685.48431712963</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34534,7 +34534,7 @@
         <v>45880.63050925926</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34591,7 +34591,7 @@
         <v>45966.56153935185</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34648,7 +34648,7 @@
         <v>45505</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>45505</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>45852.91453703704</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>45054</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34876,7 +34876,7 @@
         <v>45091.65386574074</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>45715.64556712963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34995,7 +34995,7 @@
         <v>45971</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35052,7 +35052,7 @@
         <v>45971.81322916667</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         <v>45971.83403935185</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35166,7 +35166,7 @@
         <v>45484.55672453704</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35223,7 +35223,7 @@
         <v>45973.49765046296</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35280,7 +35280,7 @@
         <v>45971.81769675926</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35337,7 +35337,7 @@
         <v>45538</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35394,7 +35394,7 @@
         <v>45169.62340277778</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35451,7 +35451,7 @@
         <v>44705.43685185185</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35508,7 +35508,7 @@
         <v>45975.39666666667</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35565,7 +35565,7 @@
         <v>45755.31439814815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35622,7 +35622,7 @@
         <v>45267.28141203704</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35684,7 +35684,7 @@
         <v>45884.45627314815</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45185.6368287037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>44966</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45153</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45887.65018518519</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45695.55989583334</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36031,7 +36031,7 @@
         <v>45156</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36088,7 +36088,7 @@
         <v>45979</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36145,7 +36145,7 @@
         <v>46020.79466435185</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36202,7 +36202,7 @@
         <v>45726.47065972222</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>45726.56298611111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>44565</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>45980.65592592592</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36435,7 +36435,7 @@
         <v>45013.3293287037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>45412.45262731481</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>45714.74612268519</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         <v>45754.50134259259</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>45054</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>45982.48302083334</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>45982.52304398148</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>45982.50164351852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36896,7 +36896,7 @@
         <v>45769.41255787037</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45624.98180555556</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45982.45975694444</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45771.4725925926</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37134,7 +37134,7 @@
         <v>44830.4331712963</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37191,7 +37191,7 @@
         <v>45547.37052083333</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37248,7 +37248,7 @@
         <v>44470</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37305,7 +37305,7 @@
         <v>46029.46618055556</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37362,7 +37362,7 @@
         <v>45238</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37424,7 +37424,7 @@
         <v>45744</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37481,7 +37481,7 @@
         <v>45477.42023148148</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37538,7 +37538,7 @@
         <v>46031.84211805555</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37595,7 +37595,7 @@
         <v>46030.51246527778</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37652,7 +37652,7 @@
         <v>45743.3609375</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37709,7 +37709,7 @@
         <v>46030.66420138889</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37766,7 +37766,7 @@
         <v>46020</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37823,7 +37823,7 @@
         <v>45248.819375</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37880,7 +37880,7 @@
         <v>45168.62385416667</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37937,7 +37937,7 @@
         <v>46031.57112268519</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37994,7 +37994,7 @@
         <v>45190.34791666667</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38051,7 +38051,7 @@
         <v>46034.39335648148</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38108,7 +38108,7 @@
         <v>46035.41517361111</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38165,7 +38165,7 @@
         <v>46034.34087962963</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38222,7 +38222,7 @@
         <v>46034.33364583334</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38279,7 +38279,7 @@
         <v>45698.611875</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>44474.46346064815</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38393,7 +38393,7 @@
         <v>45477.36236111111</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38450,7 +38450,7 @@
         <v>45723.44018518519</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38512,7 +38512,7 @@
         <v>46034</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38569,7 +38569,7 @@
         <v>45153</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         <v>45315.42144675926</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         <v>45995.4803125</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38740,7 +38740,7 @@
         <v>45999.4159375</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>44958.45834490741</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>45180</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38911,7 +38911,7 @@
         <v>44970.31702546297</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38968,7 +38968,7 @@
         <v>45278.50741898148</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39025,7 +39025,7 @@
         <v>44881.37020833333</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39082,7 +39082,7 @@
         <v>45268.57443287037</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39139,7 +39139,7 @@
         <v>44928.49331018519</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39196,7 +39196,7 @@
         <v>45755.29387731481</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39258,7 +39258,7 @@
         <v>46041</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39315,7 +39315,7 @@
         <v>46038.62665509259</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39372,7 +39372,7 @@
         <v>45999.42359953704</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39429,7 +39429,7 @@
         <v>45742.63379629629</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39486,7 +39486,7 @@
         <v>45302.27971064814</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>45628.73400462963</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39600,7 +39600,7 @@
         <v>45691.36315972222</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39657,7 +39657,7 @@
         <v>44530.34732638889</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39714,7 +39714,7 @@
         <v>44530.35085648148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39771,7 +39771,7 @@
         <v>46043.64356481482</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39828,7 +39828,7 @@
         <v>45352.51495370371</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39885,7 +39885,7 @@
         <v>46043.67475694444</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39942,7 +39942,7 @@
         <v>45566.48396990741</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39999,7 +39999,7 @@
         <v>45566.48729166666</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40056,7 +40056,7 @@
         <v>46043.64524305556</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40113,7 +40113,7 @@
         <v>46044.61240740741</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40170,7 +40170,7 @@
         <v>45103</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40227,7 +40227,7 @@
         <v>46044.54488425926</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40284,7 +40284,7 @@
         <v>45703.40652777778</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40346,7 +40346,7 @@
         <v>46044.60320601852</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40403,7 +40403,7 @@
         <v>46044.60550925926</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40460,7 +40460,7 @@
         <v>44740.59510416666</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40517,7 +40517,7 @@
         <v>46048.97453703704</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>45239.30261574074</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>45477.36623842592</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>46048.99026620371</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
         <v>46048.97947916666</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40802,7 +40802,7 @@
         <v>46005.76400462963</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40859,7 +40859,7 @@
         <v>46048.96581018518</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40916,7 +40916,7 @@
         <v>44537.4409375</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40973,7 +40973,7 @@
         <v>46005.75408564815</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41030,7 +41030,7 @@
         <v>45741.47322916667</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41092,7 +41092,7 @@
         <v>45149</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41149,7 +41149,7 @@
         <v>45149</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41206,7 +41206,7 @@
         <v>46008.53185185185</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41263,7 +41263,7 @@
         <v>45054</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41320,7 +41320,7 @@
         <v>46008.59555555556</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41377,7 +41377,7 @@
         <v>45175</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41434,7 +41434,7 @@
         <v>45188.538125</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         <v>46050.8391550926</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>46008.62778935185</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44349</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45185</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>46050.83611111111</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>46050.84315972222</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>46008.53971064815</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>46051.42302083333</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45194</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45050.42804398148</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>46010.35197916667</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>46010.35797453704</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45307</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45594.44086805556</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>46010.36451388889</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45135.42358796296</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>46052.60876157408</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45271.41395833333</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>44498.49251157408</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45194</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>44719</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45237</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>44592</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>44831</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>44732.66290509259</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45726.48642361111</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43040,7 +43040,7 @@
         <v>44502</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43097,7 +43097,7 @@
         <v>45511.45795138889</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43154,7 +43154,7 @@
         <v>45340.92813657408</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43211,7 +43211,7 @@
         <v>45340.93671296296</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43268,7 +43268,7 @@
         <v>45359.35763888889</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43325,7 +43325,7 @@
         <v>45081.89592592593</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43382,7 +43382,7 @@
         <v>44951.89928240741</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43439,7 +43439,7 @@
         <v>46013.79969907407</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43496,7 +43496,7 @@
         <v>45729.481875</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43553,7 +43553,7 @@
         <v>45390</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43610,7 +43610,7 @@
         <v>46058.65725694445</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43667,7 +43667,7 @@
         <v>46058.68710648148</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43724,7 +43724,7 @@
         <v>46058.5681712963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43781,7 +43781,7 @@
         <v>44889.47004629629</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43838,7 +43838,7 @@
         <v>46058</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43895,7 +43895,7 @@
         <v>45168</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43952,7 +43952,7 @@
         <v>45573.00284722223</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44009,7 +44009,7 @@
         <v>45225</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         <v>45048</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44123,7 +44123,7 @@
         <v>45259.3803125</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44180,7 +44180,7 @@
         <v>44901</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44242,7 +44242,7 @@
         <v>45378.62289351852</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         <v>45156</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44356,7 +44356,7 @@
         <v>45328.46377314815</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44413,7 +44413,7 @@
         <v>44916.57162037037</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44470,7 +44470,7 @@
         <v>45559.50409722222</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44527,7 +44527,7 @@
         <v>45569.49569444444</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44584,7 +44584,7 @@
         <v>44816.82284722223</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44641,7 +44641,7 @@
         <v>45690.4284375</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44703,7 +44703,7 @@
         <v>44526.36217592593</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44760,7 +44760,7 @@
         <v>45168</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44817,7 +44817,7 @@
         <v>45104.52766203704</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44874,7 +44874,7 @@
         <v>45360.69721064815</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44936,7 +44936,7 @@
         <v>45532.65594907408</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44998,7 +44998,7 @@
         <v>44482.36085648148</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45055,7 +45055,7 @@
         <v>45194</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45112,7 +45112,7 @@
         <v>45656.40385416667</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>45238</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45236,7 +45236,7 @@
         <v>45205</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45293,7 +45293,7 @@
         <v>45280</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45350,7 +45350,7 @@
         <v>45420</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45407,7 +45407,7 @@
         <v>45615.59752314815</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45464,7 +45464,7 @@
         <v>44831.66966435185</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45521,7 +45521,7 @@
         <v>45477.3924537037</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45578,7 +45578,7 @@
         <v>45541.52309027778</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45640,7 +45640,7 @@
         <v>45209.55802083333</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45702,7 +45702,7 @@
         <v>44998.50371527778</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45764,7 +45764,7 @@
         <v>45174</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45821,7 +45821,7 @@
         <v>45189.84020833333</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45878,7 +45878,7 @@
         <v>45170.45482638889</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>44880</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>45447</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46049,7 +46049,7 @@
         <v>45610.66920138889</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46106,7 +46106,7 @@
         <v>45266.45414351852</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>44876</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45049</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46277,7 +46277,7 @@
         <v>44994.54207175926</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46334,7 +46334,7 @@
         <v>44994</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46391,7 +46391,7 @@
         <v>44529</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46448,7 +46448,7 @@
         <v>44952.49959490741</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46505,7 +46505,7 @@
         <v>44546.67575231481</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46562,7 +46562,7 @@
         <v>45705.66491898148</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46619,7 +46619,7 @@
         <v>45370.55523148148</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>45715</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46733,7 +46733,7 @@
         <v>45271.40059027778</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46790,7 +46790,7 @@
         <v>45099</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46847,7 +46847,7 @@
         <v>44516</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46904,7 +46904,7 @@
         <v>45580.70136574074</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46961,7 +46961,7 @@
         <v>45152.34190972222</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47018,7 +47018,7 @@
         <v>45638.48775462963</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47080,7 +47080,7 @@
         <v>45182</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47137,7 +47137,7 @@
         <v>45252.44798611111</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47199,7 +47199,7 @@
         <v>45134</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47256,7 +47256,7 @@
         <v>44564.80535879629</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47313,7 +47313,7 @@
         <v>45152</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47370,7 +47370,7 @@
         <v>44999.48005787037</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47427,7 +47427,7 @@
         <v>45180.46920138889</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47484,7 +47484,7 @@
         <v>44260</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47546,7 +47546,7 @@
         <v>45104.82601851852</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47603,7 +47603,7 @@
         <v>45016</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47660,7 +47660,7 @@
         <v>45569</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47717,7 +47717,7 @@
         <v>45406</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47774,7 +47774,7 @@
         <v>45016.51652777778</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47831,7 +47831,7 @@
         <v>45391.33564814815</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47888,7 +47888,7 @@
         <v>45391.33994212963</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47945,7 +47945,7 @@
         <v>45257.7815625</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48007,7 +48007,7 @@
         <v>45693.5546875</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48064,7 +48064,7 @@
         <v>45693.55793981482</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48121,7 +48121,7 @@
         <v>45755.29855324074</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48183,7 +48183,7 @@
         <v>45455.5603587963</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48240,7 +48240,7 @@
         <v>44994.45324074074</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48297,7 +48297,7 @@
         <v>45340.86449074074</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48354,7 +48354,7 @@
         <v>45019.36079861111</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48411,7 +48411,7 @@
         <v>45408.4359837963</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48468,7 +48468,7 @@
         <v>45168</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48530,7 +48530,7 @@
         <v>45420.39489583333</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48587,7 +48587,7 @@
         <v>45703.40883101852</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48649,7 +48649,7 @@
         <v>45610.67653935185</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         <v>44725</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         <v>45129.80059027778</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48820,7 +48820,7 @@
         <v>45092</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48877,7 +48877,7 @@
         <v>44732</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48939,7 +48939,7 @@
         <v>44300</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48996,7 +48996,7 @@
         <v>45260.47619212963</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49058,7 +49058,7 @@
         <v>45260.47771990741</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49120,7 +49120,7 @@
         <v>45147.70241898148</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49177,7 +49177,7 @@
         <v>45642.5578125</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49234,7 +49234,7 @@
         <v>45096.90421296296</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49291,7 +49291,7 @@
         <v>45273</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49348,7 +49348,7 @@
         <v>45168</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49405,7 +49405,7 @@
         <v>44893</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49467,7 +49467,7 @@
         <v>45439.58288194444</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49524,7 +49524,7 @@
         <v>44258</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49581,7 +49581,7 @@
         <v>45071</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49638,7 +49638,7 @@
         <v>45081.91804398148</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49695,7 +49695,7 @@
         <v>45309.80746527778</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49752,7 +49752,7 @@
         <v>45048.37384259259</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49809,7 +49809,7 @@
         <v>45691.36478009259</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49866,7 +49866,7 @@
         <v>45225.76035879629</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49923,7 +49923,7 @@
         <v>44862</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49985,7 +49985,7 @@
         <v>44994.45459490741</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50042,7 +50042,7 @@
         <v>45273.28496527778</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50099,7 +50099,7 @@
         <v>45247</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50156,7 +50156,7 @@
         <v>44438</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>45019.37908564815</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50270,7 +50270,7 @@
         <v>44530</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50327,7 +50327,7 @@
         <v>45250.44482638889</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50384,7 +50384,7 @@
         <v>45681.58489583333</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50441,7 +50441,7 @@
         <v>45681.59599537037</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50498,7 +50498,7 @@
         <v>44252</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50560,7 +50560,7 @@
         <v>44971.36787037037</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50617,7 +50617,7 @@
         <v>45638.49185185185</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50679,7 +50679,7 @@
         <v>45216.54601851852</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50736,7 +50736,7 @@
         <v>45524.63563657407</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50793,7 +50793,7 @@
         <v>45646.56480324074</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50850,7 +50850,7 @@
         <v>45318.64234953704</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50907,7 +50907,7 @@
         <v>45427</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50964,7 +50964,7 @@
         <v>45129.79834490741</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         <v>44725</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51078,7 +51078,7 @@
         <v>45755.30921296297</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51135,7 +51135,7 @@
         <v>45755.31265046296</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51192,7 +51192,7 @@
         <v>44999.36128472222</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51249,7 +51249,7 @@
         <v>44928.4900462963</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51306,7 +51306,7 @@
         <v>44928</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51368,7 +51368,7 @@
         <v>45566.4808449074</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51425,7 +51425,7 @@
         <v>45229</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51482,7 +51482,7 @@
         <v>44827</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51539,7 +51539,7 @@
         <v>45153.62142361111</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51596,7 +51596,7 @@
         <v>45706.50239583333</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51653,7 +51653,7 @@
         <v>45628.72706018519</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51710,7 +51710,7 @@
         <v>45771.58767361111</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51767,7 +51767,7 @@
         <v>45783.43402777778</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51824,7 +51824,7 @@
         <v>45789.49431712963</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51881,7 +51881,7 @@
         <v>45714.66180555556</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51938,7 +51938,7 @@
         <v>45727.37675925926</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51995,7 +51995,7 @@
         <v>45790.45359953704</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -575,7 +575,7 @@
         <v>44468</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45477.35888888889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45399</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45541</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45541</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>45575</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44551</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>45369.35270833333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>45026</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>44822</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>45400</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45723.44277777777</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45810.41737268519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45113.60486111111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         <v>45950</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>44278</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44917.42984953704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>45466.63329861111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>44519.98922453704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44295</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44341</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44397.6375462963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44883.45847222222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45016</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>45629.34431712963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44980</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>45595</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>45690.42671296297</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45216.47987268519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45835.38121527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>45904.5654050926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>45917.35021990741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>45604.64533564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>45400</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>45399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>45568.38174768518</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>45702.46353009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>45324</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>45566</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>45982.48730324074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>45450</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44319</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>45239</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45755.30336805555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>45755.3155787037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>46050.80883101852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>45009.35950231482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>45992</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>45901</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45147</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44942</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>45399</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>44526</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>45169.50775462963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>45594.41554398148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>45328</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>45690.4250925926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>45225.75832175926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>45393.63238425926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45635.37515046296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>45191</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>45798.3421875</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>45810.41100694444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45810.43359953703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44270.60216435185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44353</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44337</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44411</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44609.71396990741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44449</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44564</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44827</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44827.63002314815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44833</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44385.34373842592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44477</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44520.0127662037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44356.47372685185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44452.60662037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44564</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44252</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44608</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>44249</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44385.36721064815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>44676</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>44375</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>44480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44712.57193287037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44809.4018287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44385.31377314815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44831</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44532.64408564815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44536</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44839.48378472222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44490.51148148148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44700.38892361111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>44482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>44705</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44673</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>44631.46762731481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44490</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44831</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44831.75778935185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>44456</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>44295</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44488.42239583333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44582</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44274</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44266.58711805556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44368.45892361111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44594</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44375</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>44831.31585648148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>44432</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44452.59549768519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44462.45162037037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44526.35113425926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44490.5975925926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44420</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44447</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44811</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44438</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44357.37903935185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44428.88928240741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44296.53390046296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44827</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44490.34951388889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44683</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44743.57672453704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44552</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44755</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44274.57768518518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44441</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>44496</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44519.98100694444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44519.99180555555</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44520.006875</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44532</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44532.58314814815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44713</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44617.44810185185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44375</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44552.67385416666</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44420</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44686</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44386</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44825.34015046297</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44526</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44643</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44263</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44426</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>44612</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44350.91193287037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44434</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44794</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44531.36721064815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44484</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>44278</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>44320</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>44712</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>44419</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45736</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44992.64321759259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45537.59931712963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45132</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         <v>45442.46103009259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>44609.71230324074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>45477.37200231481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>44868.66078703704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>45363.47704861111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>45063</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>45695.56203703704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>45695.5696875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44958.45609953703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>45735.35653935185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45197.40341435185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44651</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>45352.49944444445</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>45127</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>45008.48836805556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>45749.37798611111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>45744</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>44610</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45610.65568287037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>45743.36407407407</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>45743.38579861111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45610.63998842592</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44960.49487268519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44963.33652777778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45618</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>45180</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>45355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44992.63921296296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45685.52724537037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>45566</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44473</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>45748.61495370371</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45335.48046296297</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45573.46162037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45041.6187037037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45085</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45191.34582175926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45310</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45194</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45637</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>44903.47134259259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45566.4780787037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45184</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45715.48555555556</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44981.40186342593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44811.44258101852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45512</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45370.3781712963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>45399.44796296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45730.33476851852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44949.44762731482</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45748.37739583333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44519.98293981481</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45335.45155092593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44473</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>45376.49780092593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>45432</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>45624.42489583333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>45271.88459490741</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>45414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44935</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>45677</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45103.64168981482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45197.60594907407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45266.36511574074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44894</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>45719.30990740741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>45693.56089120371</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>45216</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44896.59528935186</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>45467.48708333333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>45742.52042824074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>45439.56127314815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>45568.35815972222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44970.8662962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>44827</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>45455.53951388889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45681.59012731481</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44827</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>45735.63356481482</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45155.60460648148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45660</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45616.46331018519</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>45819.56673611111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>45818.50829861111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>45817.8397337963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>45505</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44593</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>45884.5909375</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>45477.44527777778</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>45146.34890046297</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>45412.30461805555</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45341</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45218</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45615.62094907407</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45842.68615740741</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45824.46417824074</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45702.47150462963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44975.87836805556</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>45825</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>45825</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>45825</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>45677</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>45813.45608796296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>45889.67118055555</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45776</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>45827.38844907407</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>45827.45986111111</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>45726.75759259259</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45826.38826388889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>45827.45690972222</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>45324</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>45713.37621527778</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45723.43553240741</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45827.44914351852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45827.45063657407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45827.45379629629</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45169.62482638889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44447</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>45086.64048611111</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>45827.40579861111</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>45827.47229166667</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>45895.51850694444</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>45175</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>45894.65247685185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45826.38912037037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>45827.46381944444</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45831.30805555556</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45070.64072916667</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45723.44528935185</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>44484</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44781.91173611111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>45831.51925925926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>45008.45369212963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>45034.31502314815</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>45047.82030092592</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>45833.32947916666</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>45013</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>45833</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>45714.74789351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44818.62078703703</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>45901</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>45834.56986111111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>45834.53106481482</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45834.566875</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45047</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>45719.31096064814</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>45554.4112037037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>45903.49077546296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>45903.67501157407</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
         <v>45715.6405787037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>45729.46997685185</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>45834.65643518518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>45902.32299768519</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>45903.70535879629</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>45715.49478009259</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>45622.35957175926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>45905</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>45755.29065972222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44373</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>45216</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>45635.38275462963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>45838.53700231481</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         <v>45905.43545138889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>44526</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>45908</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>45908</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23567,7 +23567,7 @@
         <v>45908</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
         <v>45680</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45909.54364583334</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45909.55575231482</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45909.56019675926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45079</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         <v>45909.54929398148</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>45841</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24028,7 +24028,7 @@
         <v>45841</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>45841</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>45910.45300925926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>45911.45987268518</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>45845.63357638889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>45845.58313657407</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>45719.31196759259</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>45488.47798611111</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>45912.65081018519</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>45915.34211805555</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>45843.54559027778</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>45842.68381944444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>44439</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>45908</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>45908</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>45908</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>45730.32494212963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45723.4478125</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>44749</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44826</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>45916.50309027778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>45916.54130787037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>45852.91319444445</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>45390</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44824</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44496.5093287037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45481</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>45360.69631944445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45918</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45918</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>45918</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44614</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44834</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>45442.59461805555</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>45923.45716435185</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>45715</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>45923.5996875</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45923.60820601852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>45923.58434027778</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>45923.58523148148</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>45923.5972337963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>45923.64820601852</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>45209</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>45923.60203703704</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>45923.60518518519</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>45923.61215277778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>45923.64208333333</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>45923.64613425926</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45582</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>45923.59324074074</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>45923.61527777778</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45923.61694444445</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45218.40142361111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45925.64199074074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27312,7 +27312,7 @@
         <v>45925.64373842593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>45925.6472337963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>45813.44929398148</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>45925.64577546297</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27555,7 +27555,7 @@
         <v>45924.43762731482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27612,7 +27612,7 @@
         <v>45618</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27669,7 +27669,7 @@
         <v>45372.51892361111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27726,7 +27726,7 @@
         <v>45925.64988425926</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27788,7 +27788,7 @@
         <v>45925.65148148148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>44963.62231481481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45923.90313657407</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>44655</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45621.44763888889</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45924.44417824074</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>44547.48429398148</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45160.60979166667</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45834.54039351852</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>44939</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45121.60563657407</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45813.52047453704</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45152.54458333334</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45168</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45929.59570601852</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45929.60078703704</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44882</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>45926.35856481481</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45929.63125</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45873.39606481481</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>45197.62081018519</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>44819</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29052,7 +29052,7 @@
         <v>45929.59108796297</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29114,7 +29114,7 @@
         <v>45929.59836805556</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29171,7 +29171,7 @@
         <v>45929.60376157407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>45252</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44991.57855324074</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>45931.62912037037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>45931.63143518518</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>45931.63373842592</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29523,7 +29523,7 @@
         <v>45575</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29580,7 +29580,7 @@
         <v>45348.39001157408</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         <v>45573.45638888889</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>45169.61795138889</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29751,7 +29751,7 @@
         <v>45826.52912037037</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29808,7 +29808,7 @@
         <v>45932.38508101852</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29865,7 +29865,7 @@
         <v>45936.61630787037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>45936.66126157407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>45881.60173611111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30036,7 +30036,7 @@
         <v>45936.60224537037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30093,7 +30093,7 @@
         <v>45880.63050925926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30150,7 +30150,7 @@
         <v>45936.61366898148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>45505</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>45505</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>45852.91453703704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>45937.35290509259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>45247</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>45755.31439814815</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>45267.28141203704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30611,7 +30611,7 @@
         <v>45695.56664351852</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30673,7 +30673,7 @@
         <v>44999</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30730,7 +30730,7 @@
         <v>45939.35864583333</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30787,7 +30787,7 @@
         <v>45884.45627314815</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30844,7 +30844,7 @@
         <v>45937.3575462963</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>45259.37826388889</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30958,7 +30958,7 @@
         <v>45940.56796296296</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31015,7 +31015,7 @@
         <v>45887.65018518519</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>45945.46298611111</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31134,7 +31134,7 @@
         <v>44995</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31191,7 +31191,7 @@
         <v>45945.64921296296</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31248,7 +31248,7 @@
         <v>44964.61778935185</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31305,7 +31305,7 @@
         <v>45944.41302083333</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31362,7 +31362,7 @@
         <v>45944.40952546296</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31419,7 +31419,7 @@
         <v>45335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31476,7 +31476,7 @@
         <v>45905</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44825.32336805556</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>45629.43613425926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31647,7 +31647,7 @@
         <v>45947.35587962963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>45947.35896990741</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>45714.74952546296</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>45947.43758101852</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31895,7 +31895,7 @@
         <v>45026</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>45951.63486111111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32009,7 +32009,7 @@
         <v>45161.48927083334</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         <v>45412.60458333333</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32123,7 +32123,7 @@
         <v>45952.81864583334</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32180,7 +32180,7 @@
         <v>45248</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>45952.49591435185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32294,7 +32294,7 @@
         <v>45952.81768518518</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32351,7 +32351,7 @@
         <v>44685.48431712963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32408,7 +32408,7 @@
         <v>45054</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32465,7 +32465,7 @@
         <v>45091.65386574074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32522,7 +32522,7 @@
         <v>45715.64556712963</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32584,7 +32584,7 @@
         <v>45959.42605324074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32641,7 +32641,7 @@
         <v>45959.48748842593</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32698,7 +32698,7 @@
         <v>45484.55672453704</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32755,7 +32755,7 @@
         <v>45958.67726851852</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32812,7 +32812,7 @@
         <v>45961.43857638889</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45538</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45961.4405787037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32993,7 +32993,7 @@
         <v>45169.62340277778</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33050,7 +33050,7 @@
         <v>45961.44376157408</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>45961.44804398148</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33174,7 +33174,7 @@
         <v>44705.43685185185</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>45961.43423611111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>45961.44523148148</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>45961.43681712963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>45185.6368287037</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>45961.43260416666</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>45961.44221064815</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33598,7 +33598,7 @@
         <v>44966</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>45153</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33712,7 +33712,7 @@
         <v>45695.55989583334</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>45965.30561342592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>45965.30861111111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45964</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>45156</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34012,7 +34012,7 @@
         <v>45966.56153935185</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34069,7 +34069,7 @@
         <v>45726.47065972222</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>45726.56298611111</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44565</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>45013.3293287037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>45412.45262731481</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>45714.74612268519</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34421,7 +34421,7 @@
         <v>45754.50134259259</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34478,7 +34478,7 @@
         <v>45054</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34535,7 +34535,7 @@
         <v>45971</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34592,7 +34592,7 @@
         <v>45971.81322916667</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34649,7 +34649,7 @@
         <v>45971.83403935185</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         <v>45973.49765046296</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34763,7 +34763,7 @@
         <v>45971.81769675926</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34820,7 +34820,7 @@
         <v>45769.41255787037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45624.98180555556</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45771.4725925926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35001,7 +35001,7 @@
         <v>44830.4331712963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35058,7 +35058,7 @@
         <v>45975.39666666667</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35115,7 +35115,7 @@
         <v>45547.37052083333</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35172,7 +35172,7 @@
         <v>44470</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35229,7 +35229,7 @@
         <v>45238</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35291,7 +35291,7 @@
         <v>45744</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>45477.42023148148</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35405,7 +35405,7 @@
         <v>45979</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35462,7 +35462,7 @@
         <v>45980.65592592592</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35519,7 +35519,7 @@
         <v>45743.3609375</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35576,7 +35576,7 @@
         <v>45248.819375</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35633,7 +35633,7 @@
         <v>45168.62385416667</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35690,7 +35690,7 @@
         <v>45982.48302083334</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35747,7 +35747,7 @@
         <v>45982.52304398148</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>45190.34791666667</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>45982.50164351852</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>45982.45975694444</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35975,7 +35975,7 @@
         <v>45698.611875</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36032,7 +36032,7 @@
         <v>46031.84211805555</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36089,7 +36089,7 @@
         <v>44474.46346064815</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>45477.36236111111</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36203,7 +36203,7 @@
         <v>45723.44018518519</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>45153</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36322,7 +36322,7 @@
         <v>45315.42144675926</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         <v>46034.39335648148</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36436,7 +36436,7 @@
         <v>46035.41517361111</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>44958.45834490741</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36550,7 +36550,7 @@
         <v>46034.34087962963</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36607,7 +36607,7 @@
         <v>45180</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36664,7 +36664,7 @@
         <v>46034.33364583334</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44970.31702546297</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>46034</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>45278.50741898148</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44881.37020833333</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>45268.57443287037</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>45995.4803125</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44928.49331018519</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37120,7 +37120,7 @@
         <v>45755.29387731481</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>45999.4159375</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>45742.63379629629</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>45302.27971064814</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>45628.73400462963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>46041</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>45691.36315972222</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>46038.62665509259</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>45999.42359953704</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44530.34732638889</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44530.35085648148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>45352.51495370371</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>45566.48396990741</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>45566.48729166666</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>45103</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>46043.64356481482</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>46043.67475694444</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45703.40652777778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38156,7 +38156,7 @@
         <v>46043.64524305556</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>46044.61240740741</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38270,7 +38270,7 @@
         <v>46044.54488425926</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38327,7 +38327,7 @@
         <v>44740.59510416666</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38384,7 +38384,7 @@
         <v>45239.30261574074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38441,7 +38441,7 @@
         <v>45477.36623842592</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>46044.60320601852</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>46044.60550925926</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44537.4409375</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38669,7 +38669,7 @@
         <v>46048.97453703704</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38726,7 +38726,7 @@
         <v>45741.47322916667</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38788,7 +38788,7 @@
         <v>45149</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38845,7 +38845,7 @@
         <v>46048.99026620371</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45149</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38959,7 +38959,7 @@
         <v>46048.97947916666</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>45054</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>45175</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39130,7 +39130,7 @@
         <v>46005.76400462963</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>46048.96581018518</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39244,7 +39244,7 @@
         <v>45188.538125</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>44349</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>46005.75408564815</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>45185</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39477,7 +39477,7 @@
         <v>46008.53185185185</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39534,7 +39534,7 @@
         <v>45194</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39591,7 +39591,7 @@
         <v>46008.59555555556</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>45050.42804398148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>45307</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>45594.44086805556</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>46050.8391550926</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>45135.42358796296</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39933,7 +39933,7 @@
         <v>46008.62778935185</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39990,7 +39990,7 @@
         <v>45016</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40047,7 +40047,7 @@
         <v>45271.41395833333</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40104,7 +40104,7 @@
         <v>44498.49251157408</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40161,7 +40161,7 @@
         <v>45194</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44719</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
         <v>46050.83611111111</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40332,7 +40332,7 @@
         <v>46050.84315972222</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>46008.53971064815</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40446,7 +40446,7 @@
         <v>46051.42302083333</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40503,7 +40503,7 @@
         <v>45237</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40560,7 +40560,7 @@
         <v>46010.35197916667</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40617,7 +40617,7 @@
         <v>46010.35797453704</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40674,7 +40674,7 @@
         <v>44592</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40731,7 +40731,7 @@
         <v>46010.36451388889</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40788,7 +40788,7 @@
         <v>44831</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40845,7 +40845,7 @@
         <v>46052.60876157408</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40902,7 +40902,7 @@
         <v>44732.66290509259</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40959,7 +40959,7 @@
         <v>45726.48642361111</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41021,7 +41021,7 @@
         <v>44502</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41078,7 +41078,7 @@
         <v>45511.45795138889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41135,7 +41135,7 @@
         <v>45340.92813657408</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41192,7 +41192,7 @@
         <v>45340.93671296296</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41249,7 +41249,7 @@
         <v>45359.35763888889</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>45081.89592592593</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44951.89928240741</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>45729.481875</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>45390</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41534,7 +41534,7 @@
         <v>44889.47004629629</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41591,7 +41591,7 @@
         <v>46013.79969907407</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41648,7 +41648,7 @@
         <v>45168</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41705,7 +41705,7 @@
         <v>46058.65725694445</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41762,7 +41762,7 @@
         <v>46058.68710648148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41819,7 +41819,7 @@
         <v>46058.5681712963</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41876,7 +41876,7 @@
         <v>45573.00284722223</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>46058</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45225</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45259.3803125</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>46063.5630787037</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42223,7 +42223,7 @@
         <v>46063.67090277778</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>44901</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>46020.79466435185</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42399,7 +42399,7 @@
         <v>46062.5958912037</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42456,7 +42456,7 @@
         <v>45378.62289351852</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42513,7 +42513,7 @@
         <v>45156</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42570,7 +42570,7 @@
         <v>45328.46377314815</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42627,7 +42627,7 @@
         <v>44916.57162037037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42684,7 +42684,7 @@
         <v>46065.39902777778</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42746,7 +42746,7 @@
         <v>46065.40284722222</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42808,7 +42808,7 @@
         <v>45559.50409722222</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42865,7 +42865,7 @@
         <v>45569.49569444444</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42922,7 +42922,7 @@
         <v>44816.82284722223</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42979,7 +42979,7 @@
         <v>46066.35604166667</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43036,7 +43036,7 @@
         <v>45690.4284375</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>46066.55408564815</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43160,7 +43160,7 @@
         <v>44526.36217592593</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43217,7 +43217,7 @@
         <v>46062</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43274,7 +43274,7 @@
         <v>45168</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43331,7 +43331,7 @@
         <v>46029.46618055556</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43388,7 +43388,7 @@
         <v>45104.52766203704</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43445,7 +43445,7 @@
         <v>45360.69721064815</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         <v>45532.65594907408</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43569,7 +43569,7 @@
         <v>44482.36085648148</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43626,7 +43626,7 @@
         <v>45194</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43683,7 +43683,7 @@
         <v>46031.57112268519</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43740,7 +43740,7 @@
         <v>46030.51246527778</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43797,7 +43797,7 @@
         <v>45656.40385416667</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43859,7 +43859,7 @@
         <v>45238</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43921,7 +43921,7 @@
         <v>46020</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43978,7 +43978,7 @@
         <v>46030.66420138889</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44035,7 +44035,7 @@
         <v>45205</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44092,7 +44092,7 @@
         <v>45280</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44149,7 +44149,7 @@
         <v>45420</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44206,7 +44206,7 @@
         <v>45615.59752314815</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44263,7 +44263,7 @@
         <v>44831.66966435185</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44320,7 +44320,7 @@
         <v>45477.3924537037</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44377,7 +44377,7 @@
         <v>45541.52309027778</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44439,7 +44439,7 @@
         <v>45209.55802083333</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44501,7 +44501,7 @@
         <v>44998.50371527778</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45174</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45189.84020833333</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45170.45482638889</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>44880</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45447</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45610.66920138889</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45266.45414351852</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>44876</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45049</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>44994.54207175926</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>44994</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>44529</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>44952.49959490741</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>44546.67575231481</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45705.66491898148</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45370.55523148148</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45715</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45532,7 +45532,7 @@
         <v>45271.40059027778</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45589,7 +45589,7 @@
         <v>45099</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45646,7 +45646,7 @@
         <v>44516</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45703,7 +45703,7 @@
         <v>45580.70136574074</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45760,7 +45760,7 @@
         <v>45152.34190972222</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45817,7 +45817,7 @@
         <v>45638.48775462963</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>45182</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>45252.44798611111</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>45134</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>44564.80535879629</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>45152</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44999.48005787037</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>45180.46920138889</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>44260</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         <v>45104.82601851852</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>45016</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>45569</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46516,7 +46516,7 @@
         <v>45406</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46573,7 +46573,7 @@
         <v>45016.51652777778</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46630,7 +46630,7 @@
         <v>45391.33564814815</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46687,7 +46687,7 @@
         <v>45391.33994212963</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46744,7 +46744,7 @@
         <v>45257.7815625</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>45693.5546875</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>45693.55793981482</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>45755.29855324074</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46982,7 +46982,7 @@
         <v>45455.5603587963</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47039,7 +47039,7 @@
         <v>44994.45324074074</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47096,7 +47096,7 @@
         <v>45340.86449074074</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47153,7 +47153,7 @@
         <v>45019.36079861111</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>45408.4359837963</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>45168</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47329,7 +47329,7 @@
         <v>45420.39489583333</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47386,7 +47386,7 @@
         <v>45703.40883101852</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47448,7 +47448,7 @@
         <v>45610.67653935185</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47505,7 +47505,7 @@
         <v>44725</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47562,7 +47562,7 @@
         <v>45129.80059027778</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47619,7 +47619,7 @@
         <v>45092</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47676,7 +47676,7 @@
         <v>44732</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47738,7 +47738,7 @@
         <v>44300</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47795,7 +47795,7 @@
         <v>45260.47619212963</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47857,7 +47857,7 @@
         <v>45260.47771990741</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47919,7 +47919,7 @@
         <v>45147.70241898148</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47976,7 +47976,7 @@
         <v>45642.5578125</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48033,7 +48033,7 @@
         <v>45096.90421296296</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48090,7 +48090,7 @@
         <v>45273</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48147,7 +48147,7 @@
         <v>45168</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48204,7 +48204,7 @@
         <v>44893</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48266,7 +48266,7 @@
         <v>45439.58288194444</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48323,7 +48323,7 @@
         <v>44258</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48380,7 +48380,7 @@
         <v>45071</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48437,7 +48437,7 @@
         <v>45081.91804398148</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48494,7 +48494,7 @@
         <v>45309.80746527778</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48551,7 +48551,7 @@
         <v>45048.37384259259</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48608,7 +48608,7 @@
         <v>45691.36478009259</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48665,7 +48665,7 @@
         <v>45225.76035879629</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>44862</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48784,7 +48784,7 @@
         <v>44994.45459490741</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48841,7 +48841,7 @@
         <v>45273.28496527778</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48898,7 +48898,7 @@
         <v>45247</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48955,7 +48955,7 @@
         <v>44438</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49012,7 +49012,7 @@
         <v>45019.37908564815</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49069,7 +49069,7 @@
         <v>44530</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49126,7 +49126,7 @@
         <v>45250.44482638889</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49183,7 +49183,7 @@
         <v>45681.58489583333</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49240,7 +49240,7 @@
         <v>45681.59599537037</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49297,7 +49297,7 @@
         <v>44252</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49359,7 +49359,7 @@
         <v>44971.36787037037</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49416,7 +49416,7 @@
         <v>45638.49185185185</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49478,7 +49478,7 @@
         <v>45216.54601851852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45524.63563657407</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45646.56480324074</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45318.64234953704</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45427</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45129.79834490741</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>44725</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45755.30921296297</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49934,7 +49934,7 @@
         <v>45755.31265046296</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49991,7 +49991,7 @@
         <v>44999.36128472222</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
         <v>44928.4900462963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50105,7 +50105,7 @@
         <v>44928</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50167,7 +50167,7 @@
         <v>45566.4808449074</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50224,7 +50224,7 @@
         <v>45229</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>44827</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50338,7 +50338,7 @@
         <v>45153.62142361111</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50395,7 +50395,7 @@
         <v>45706.50239583333</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50452,7 +50452,7 @@
         <v>45628.72706018519</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>45771.58767361111</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50566,7 +50566,7 @@
         <v>45783.43402777778</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50623,7 +50623,7 @@
         <v>45789.49431712963</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50680,7 +50680,7 @@
         <v>45714.66180555556</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50737,7 +50737,7 @@
         <v>45727.37675925926</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50794,7 +50794,7 @@
         <v>45790.45359953704</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>44942</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45735.35633101852</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45799.41569444445</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45638</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51104,7 +51104,7 @@
         <v>45649.56431712963</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51161,7 +51161,7 @@
         <v>45743</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51218,7 +51218,7 @@
         <v>45321.48475694445</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51275,7 +51275,7 @@
         <v>45637.58633101852</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51332,7 +51332,7 @@
         <v>45800.50819444445</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>45539.61945601852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45803.44508101852</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45803.44677083333</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51560,7 +51560,7 @@
         <v>45805.41023148148</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51617,7 +51617,7 @@
         <v>45810.44914351852</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51674,7 +51674,7 @@
         <v>45539</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51731,7 +51731,7 @@
         <v>45810.45978009259</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51788,7 +51788,7 @@
         <v>45604.64454861111</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51845,7 +51845,7 @@
         <v>45442.48394675926</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45810.579375</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45813.45994212963</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45812.57268518519</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52078,7 +52078,7 @@
         <v>45812.57512731481</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52135,7 +52135,7 @@
         <v>45812.5667824074</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52192,7 +52192,7 @@
         <v>45812.57081018519</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -575,7 +575,7 @@
         <v>44468</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45477.35888888889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45399</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45541</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45541</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>45575</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44551</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>45369.35270833333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>45026</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>44822</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>45400</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45723.44277777777</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45810.41737268519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45113.60486111111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         <v>45950</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44280</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>44278</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44917.42984953704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44559</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>45466.63329861111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>44519.98922453704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44295</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44341</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44397.6375462963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44883.45847222222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45016</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>45629.34431712963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44980</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>45595</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>45690.42671296297</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45216.47987268519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45835.38121527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>45904.5654050926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>45917.35021990741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>45604.64533564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>45400</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>45399</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>45568.38174768518</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>45702.46353009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>45324</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>45566</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>45982.48730324074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>45450</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44319</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>45239</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45755.30336805555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>45755.3155787037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>46050.80883101852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>45009.35950231482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>45992</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>45901</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45147</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44942</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>45399</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>44526</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>45169.50775462963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>45594.41554398148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>45328</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>45690.4250925926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>45225.75832175926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>45393.63238425926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45635.37515046296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>45191</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>45798.3421875</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>45810.41100694444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45810.43359953703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44270.60216435185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44353</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44337</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44411</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44609.71396990741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44449</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44564</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44827</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44827.63002314815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44833</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44385.34373842592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44477</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44520.0127662037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44356.47372685185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44452.60662037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44564</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44252</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44608</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>44249</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44385.36721064815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>44676</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>44375</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>44480</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44712.57193287037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44809.4018287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44385.31377314815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44831</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44532.64408564815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44536</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44839.48378472222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44490.51148148148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44700.38892361111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>44482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>44705</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>44673</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>44631.46762731481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44490</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44831</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44831.75778935185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>44456</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44308</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>44295</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44488.42239583333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44582</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44274</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44266.58711805556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44368.45892361111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44420</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44594</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44375</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>44831.31585648148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>44432</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44452.59549768519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44462.45162037037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44526.35113425926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44490.5975925926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44420</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44447</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44811</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44438</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44357.37903935185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44428.88928240741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44296.53390046296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44827</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44490.34951388889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44683</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44743.57672453704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44552</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44755</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44274.57768518518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44441</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>44496</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44519.98100694444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44519.99180555555</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44520.006875</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44532</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44532.58314814815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44713</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44617.44810185185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44375</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44552.67385416666</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44420</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44686</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44386</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44825.34015046297</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44526</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44643</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44263</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44426</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>44612</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44350.91193287037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44434</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44794</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44531.36721064815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44484</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>44278</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>44320</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>44712</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>44419</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45736</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44794</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44992.64321759259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45537.59931712963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45132</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         <v>45442.46103009259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>44609.71230324074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>45477.37200231481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>44868.66078703704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>45363.47704861111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>45063</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>45695.56203703704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>45695.5696875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44958.45609953703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>45735.35653935185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45197.40341435185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44651</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>45352.49944444445</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>45127</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>45008.48836805556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>45749.37798611111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>45744</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>44610</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45610.65568287037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>45743.36407407407</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>45743.38579861111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45610.63998842592</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44960.49487268519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44963.33652777778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45618</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>45180</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>45355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44992.63921296296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45685.52724537037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>45566</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44473</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>45748.61495370371</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45335.48046296297</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45573.46162037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45041.6187037037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45085</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45191.34582175926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45310</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45194</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45637</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>44903.47134259259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45566.4780787037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45184</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45715.48555555556</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44981.40186342593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44811.44258101852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45512</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45370.3781712963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>45399.44796296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45730.33476851852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44949.44762731482</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45748.37739583333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44519.98293981481</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45335.45155092593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44473</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>45376.49780092593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>45432</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>45624.42489583333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>45271.88459490741</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>45414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44935</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>45677</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45103.64168981482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45197.60594907407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45266.36511574074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44894</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>45719.30990740741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>45693.56089120371</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>45216</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44896.59528935186</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>45467.48708333333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>45742.52042824074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>45439.56127314815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>45568.35815972222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44970.8662962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>44827</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>45455.53951388889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45681.59012731481</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44827</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>45735.63356481482</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45155.60460648148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45660</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45616.46331018519</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>45819.56673611111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>45818.50829861111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>45817.8397337963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>45505</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44593</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>45884.5909375</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>45477.44527777778</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>45146.34890046297</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>45412.30461805555</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45341</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45218</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45615.62094907407</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45842.68615740741</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45824.46417824074</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45702.47150462963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44975.87836805556</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>45825</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>45825</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>45825</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>45677</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>45813.45608796296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>45889.67118055555</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45776</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>45827.38844907407</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>45827.45986111111</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>45726.75759259259</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45826.38826388889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>45827.45690972222</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>45324</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>45713.37621527778</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45723.43553240741</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45827.44914351852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45827.45063657407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45827.45379629629</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45169.62482638889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44447</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>45086.64048611111</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>45827.40579861111</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>45827.47229166667</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>45895.51850694444</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>45175</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>45894.65247685185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45826.38912037037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>45827.46381944444</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45831.30805555556</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45070.64072916667</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45723.44528935185</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>44484</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45831</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44781.91173611111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>45831.51925925926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>45008.45369212963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>45034.31502314815</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>45047.82030092592</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>45833.32947916666</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>45013</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>45833</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>45714.74789351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44818.62078703703</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>45901</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>45834.56986111111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>45834.53106481482</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45834.566875</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45047</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>45719.31096064814</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>45554.4112037037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>45903.49077546296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>45903.67501157407</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
         <v>45715.6405787037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>45729.46997685185</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>45834.65643518518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>45902.32299768519</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>45903.70535879629</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>45715.49478009259</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>45622.35957175926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>45905</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>45755.29065972222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44373</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>45216</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>45635.38275462963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>45838.53700231481</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         <v>45905.43545138889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>44526</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>45908</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>45908</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23567,7 +23567,7 @@
         <v>45908</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
         <v>45680</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45909.54364583334</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45909.55575231482</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45909.56019675926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45079</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         <v>45909.54929398148</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>45841</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24028,7 +24028,7 @@
         <v>45841</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>45841</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>45910.45300925926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>45911.45987268518</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>45845.63357638889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>45845.58313657407</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>45719.31196759259</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>45488.47798611111</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>45912.65081018519</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>45915.34211805555</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>45843.54559027778</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>45842.68381944444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>44439</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>45908</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>45908</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>45908</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>45730.32494212963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45723.4478125</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>44749</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44826</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>45916.50309027778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>45916.54130787037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>45852.91319444445</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>45390</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44824</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44496.5093287037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45481</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>45360.69631944445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45918</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45918</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>45918</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44614</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44834</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>45442.59461805555</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>45923.45716435185</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>45715</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>45923.5996875</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45923.60820601852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>45923.58434027778</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>45923.58523148148</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>45923.5972337963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>45923.64820601852</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>45209</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>45923.60203703704</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>45923.60518518519</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>45923.61215277778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>45923.64208333333</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>45923.64613425926</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45582</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>45923.59324074074</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>45923.61527777778</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45923.61694444445</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45218.40142361111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45925.64199074074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27312,7 +27312,7 @@
         <v>45925.64373842593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>45925.6472337963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>45813.44929398148</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>45925.64577546297</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27555,7 +27555,7 @@
         <v>45924.43762731482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27612,7 +27612,7 @@
         <v>45618</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27669,7 +27669,7 @@
         <v>45372.51892361111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27726,7 +27726,7 @@
         <v>45925.64988425926</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27788,7 +27788,7 @@
         <v>45925.65148148148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>44963.62231481481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45923.90313657407</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>44655</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45621.44763888889</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45924.44417824074</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>44547.48429398148</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45160.60979166667</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45834.54039351852</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>44939</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45121.60563657407</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45813.52047453704</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45152.54458333334</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45168</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45929.59570601852</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45929.60078703704</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44882</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>45926.35856481481</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45929.63125</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45873.39606481481</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>45197.62081018519</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>44819</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29052,7 +29052,7 @@
         <v>45929.59108796297</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29114,7 +29114,7 @@
         <v>45929.59836805556</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29171,7 +29171,7 @@
         <v>45929.60376157407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>45252</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44991.57855324074</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>45931.62912037037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>45931.63143518518</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>45931.63373842592</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29523,7 +29523,7 @@
         <v>45575</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29580,7 +29580,7 @@
         <v>45348.39001157408</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         <v>45573.45638888889</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>45169.61795138889</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29751,7 +29751,7 @@
         <v>45826.52912037037</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29808,7 +29808,7 @@
         <v>45932.38508101852</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29865,7 +29865,7 @@
         <v>45936.61630787037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>45936.66126157407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>45881.60173611111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30036,7 +30036,7 @@
         <v>45936.60224537037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30093,7 +30093,7 @@
         <v>45880.63050925926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30150,7 +30150,7 @@
         <v>45936.61366898148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>45505</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>45505</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>45852.91453703704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>45937.35290509259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>45247</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>45755.31439814815</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>45267.28141203704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30611,7 +30611,7 @@
         <v>45695.56664351852</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30673,7 +30673,7 @@
         <v>44999</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30730,7 +30730,7 @@
         <v>45939.35864583333</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30787,7 +30787,7 @@
         <v>45884.45627314815</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30844,7 +30844,7 @@
         <v>45937.3575462963</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>45259.37826388889</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30958,7 +30958,7 @@
         <v>45940.56796296296</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31015,7 +31015,7 @@
         <v>45887.65018518519</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>45945.46298611111</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31134,7 +31134,7 @@
         <v>44995</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31191,7 +31191,7 @@
         <v>45945.64921296296</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31248,7 +31248,7 @@
         <v>44964.61778935185</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31305,7 +31305,7 @@
         <v>45944.41302083333</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31362,7 +31362,7 @@
         <v>45944.40952546296</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31419,7 +31419,7 @@
         <v>45335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31476,7 +31476,7 @@
         <v>45905</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44825.32336805556</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>45629.43613425926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31647,7 +31647,7 @@
         <v>45947.35587962963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>45947.35896990741</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>45714.74952546296</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>45947.43758101852</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31895,7 +31895,7 @@
         <v>45026</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>45951.63486111111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32009,7 +32009,7 @@
         <v>45161.48927083334</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         <v>45412.60458333333</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32123,7 +32123,7 @@
         <v>45952.81864583334</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32180,7 +32180,7 @@
         <v>45248</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>45952.49591435185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32294,7 +32294,7 @@
         <v>45952.81768518518</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32351,7 +32351,7 @@
         <v>44685.48431712963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32408,7 +32408,7 @@
         <v>45054</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32465,7 +32465,7 @@
         <v>45091.65386574074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32522,7 +32522,7 @@
         <v>45715.64556712963</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32584,7 +32584,7 @@
         <v>45959.42605324074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32641,7 +32641,7 @@
         <v>45959.48748842593</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32698,7 +32698,7 @@
         <v>45484.55672453704</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32755,7 +32755,7 @@
         <v>45958.67726851852</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32812,7 +32812,7 @@
         <v>45961.43857638889</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45538</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45961.4405787037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32993,7 +32993,7 @@
         <v>45169.62340277778</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33050,7 +33050,7 @@
         <v>45961.44376157408</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>45961.44804398148</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33174,7 +33174,7 @@
         <v>44705.43685185185</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>45961.43423611111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>45961.44523148148</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>45961.43681712963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>45185.6368287037</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>45961.43260416666</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>45961.44221064815</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33598,7 +33598,7 @@
         <v>44966</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>45153</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33712,7 +33712,7 @@
         <v>45695.55989583334</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>45965.30561342592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>45965.30861111111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45964</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>45156</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34012,7 +34012,7 @@
         <v>45966.56153935185</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34069,7 +34069,7 @@
         <v>45726.47065972222</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>45726.56298611111</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44565</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>45013.3293287037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>45412.45262731481</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>45714.74612268519</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34421,7 +34421,7 @@
         <v>45754.50134259259</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34478,7 +34478,7 @@
         <v>45054</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34535,7 +34535,7 @@
         <v>45971</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34592,7 +34592,7 @@
         <v>45971.81322916667</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34649,7 +34649,7 @@
         <v>45971.83403935185</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         <v>45973.49765046296</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34763,7 +34763,7 @@
         <v>45971.81769675926</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34820,7 +34820,7 @@
         <v>45769.41255787037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45624.98180555556</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45771.4725925926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35001,7 +35001,7 @@
         <v>44830.4331712963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35058,7 +35058,7 @@
         <v>45975.39666666667</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35115,7 +35115,7 @@
         <v>45547.37052083333</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35172,7 +35172,7 @@
         <v>44470</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35229,7 +35229,7 @@
         <v>45238</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35291,7 +35291,7 @@
         <v>45744</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>45477.42023148148</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35405,7 +35405,7 @@
         <v>45979</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35462,7 +35462,7 @@
         <v>45980.65592592592</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35519,7 +35519,7 @@
         <v>45743.3609375</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35576,7 +35576,7 @@
         <v>45248.819375</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35633,7 +35633,7 @@
         <v>45168.62385416667</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35690,7 +35690,7 @@
         <v>45982.48302083334</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35747,7 +35747,7 @@
         <v>45982.52304398148</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>45190.34791666667</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>45982.50164351852</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>45982.45975694444</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35975,7 +35975,7 @@
         <v>45698.611875</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36032,7 +36032,7 @@
         <v>46031.84211805555</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36089,7 +36089,7 @@
         <v>44474.46346064815</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>45477.36236111111</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36203,7 +36203,7 @@
         <v>45723.44018518519</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>45153</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36322,7 +36322,7 @@
         <v>45315.42144675926</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         <v>46034.39335648148</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36436,7 +36436,7 @@
         <v>46035.41517361111</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>44958.45834490741</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36550,7 +36550,7 @@
         <v>46034.34087962963</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36607,7 +36607,7 @@
         <v>45180</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36664,7 +36664,7 @@
         <v>46034.33364583334</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>44970.31702546297</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>46034</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>45278.50741898148</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>44881.37020833333</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>45268.57443287037</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>45995.4803125</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>44928.49331018519</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37120,7 +37120,7 @@
         <v>45755.29387731481</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>45999.4159375</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>45742.63379629629</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>45302.27971064814</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>45628.73400462963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>46041</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>45691.36315972222</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>46038.62665509259</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37581,7 +37581,7 @@
         <v>45999.42359953704</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>44530.34732638889</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44530.35085648148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>45352.51495370371</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>45566.48396990741</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>45566.48729166666</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>45103</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>46043.64356481482</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>46043.67475694444</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45703.40652777778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38156,7 +38156,7 @@
         <v>46043.64524305556</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>46044.61240740741</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38270,7 +38270,7 @@
         <v>46044.54488425926</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38327,7 +38327,7 @@
         <v>44740.59510416666</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38384,7 +38384,7 @@
         <v>45239.30261574074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38441,7 +38441,7 @@
         <v>45477.36623842592</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>46044.60320601852</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>46044.60550925926</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44537.4409375</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38669,7 +38669,7 @@
         <v>46048.97453703704</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38726,7 +38726,7 @@
         <v>45741.47322916667</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38788,7 +38788,7 @@
         <v>45149</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38845,7 +38845,7 @@
         <v>46048.99026620371</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45149</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38959,7 +38959,7 @@
         <v>46048.97947916666</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>45054</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>45175</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39130,7 +39130,7 @@
         <v>46005.76400462963</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>46048.96581018518</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39244,7 +39244,7 @@
         <v>45188.538125</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>44349</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>46005.75408564815</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>45185</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39477,7 +39477,7 @@
         <v>46008.53185185185</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39534,7 +39534,7 @@
         <v>45194</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39591,7 +39591,7 @@
         <v>46008.59555555556</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>45050.42804398148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>45307</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39762,7 +39762,7 @@
         <v>45594.44086805556</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         <v>46050.8391550926</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
         <v>45135.42358796296</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39933,7 +39933,7 @@
         <v>46008.62778935185</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39990,7 +39990,7 @@
         <v>45016</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40047,7 +40047,7 @@
         <v>45271.41395833333</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40104,7 +40104,7 @@
         <v>44498.49251157408</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40161,7 +40161,7 @@
         <v>45194</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44719</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
         <v>46050.83611111111</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40332,7 +40332,7 @@
         <v>46050.84315972222</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>46008.53971064815</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40446,7 +40446,7 @@
         <v>46051.42302083333</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40503,7 +40503,7 @@
         <v>45237</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40560,7 +40560,7 @@
         <v>46010.35197916667</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40617,7 +40617,7 @@
         <v>46010.35797453704</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40674,7 +40674,7 @@
         <v>44592</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40731,7 +40731,7 @@
         <v>46010.36451388889</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40788,7 +40788,7 @@
         <v>44831</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40845,7 +40845,7 @@
         <v>46052.60876157408</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40902,7 +40902,7 @@
         <v>44732.66290509259</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40959,7 +40959,7 @@
         <v>45726.48642361111</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41021,7 +41021,7 @@
         <v>44502</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41078,7 +41078,7 @@
         <v>45511.45795138889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41135,7 +41135,7 @@
         <v>45340.92813657408</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41192,7 +41192,7 @@
         <v>45340.93671296296</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41249,7 +41249,7 @@
         <v>45359.35763888889</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>45081.89592592593</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44951.89928240741</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>45729.481875</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>45390</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41534,7 +41534,7 @@
         <v>44889.47004629629</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41591,7 +41591,7 @@
         <v>46013.79969907407</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41648,7 +41648,7 @@
         <v>45168</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41705,7 +41705,7 @@
         <v>46058.65725694445</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41762,7 +41762,7 @@
         <v>46058.68710648148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41819,7 +41819,7 @@
         <v>46058.5681712963</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41876,7 +41876,7 @@
         <v>45573.00284722223</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>46058</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45225</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45259.3803125</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>46063.5630787037</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42223,7 +42223,7 @@
         <v>46063.67090277778</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>44901</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>46020.79466435185</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42399,7 +42399,7 @@
         <v>46062.5958912037</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42456,7 +42456,7 @@
         <v>45378.62289351852</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42513,7 +42513,7 @@
         <v>45156</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42570,7 +42570,7 @@
         <v>45328.46377314815</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42627,7 +42627,7 @@
         <v>44916.57162037037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42684,7 +42684,7 @@
         <v>46065.39902777778</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42746,7 +42746,7 @@
         <v>46065.40284722222</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42808,7 +42808,7 @@
         <v>45559.50409722222</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42865,7 +42865,7 @@
         <v>45569.49569444444</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42922,7 +42922,7 @@
         <v>44816.82284722223</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42979,7 +42979,7 @@
         <v>46066.35604166667</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43036,7 +43036,7 @@
         <v>45690.4284375</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>46066.55408564815</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43160,7 +43160,7 @@
         <v>44526.36217592593</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43217,7 +43217,7 @@
         <v>46062</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43274,7 +43274,7 @@
         <v>45168</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43331,7 +43331,7 @@
         <v>46029.46618055556</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43388,7 +43388,7 @@
         <v>45104.52766203704</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43445,7 +43445,7 @@
         <v>45360.69721064815</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         <v>45532.65594907408</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43569,7 +43569,7 @@
         <v>44482.36085648148</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43626,7 +43626,7 @@
         <v>45194</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43683,7 +43683,7 @@
         <v>46031.57112268519</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43740,7 +43740,7 @@
         <v>46030.51246527778</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43797,7 +43797,7 @@
         <v>45656.40385416667</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43859,7 +43859,7 @@
         <v>45238</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43921,7 +43921,7 @@
         <v>46020</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43978,7 +43978,7 @@
         <v>46030.66420138889</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44035,7 +44035,7 @@
         <v>45205</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44092,7 +44092,7 @@
         <v>45280</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44149,7 +44149,7 @@
         <v>45420</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44206,7 +44206,7 @@
         <v>45615.59752314815</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44263,7 +44263,7 @@
         <v>44831.66966435185</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44320,7 +44320,7 @@
         <v>45477.3924537037</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44377,7 +44377,7 @@
         <v>45541.52309027778</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44439,7 +44439,7 @@
         <v>45209.55802083333</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44501,7 +44501,7 @@
         <v>44998.50371527778</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45174</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45189.84020833333</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45170.45482638889</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>44880</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45447</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45610.66920138889</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45266.45414351852</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>44876</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45049</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>44994.54207175926</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>44994</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>44529</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>44952.49959490741</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>44546.67575231481</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45705.66491898148</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45370.55523148148</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45715</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45532,7 +45532,7 @@
         <v>45271.40059027778</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45589,7 +45589,7 @@
         <v>45099</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45646,7 +45646,7 @@
         <v>44516</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45703,7 +45703,7 @@
         <v>45580.70136574074</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45760,7 +45760,7 @@
         <v>45152.34190972222</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45817,7 +45817,7 @@
         <v>45638.48775462963</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>45182</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>45252.44798611111</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>45134</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>44564.80535879629</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>45152</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44999.48005787037</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>45180.46920138889</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>44260</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         <v>45104.82601851852</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>45016</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>45569</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46516,7 +46516,7 @@
         <v>45406</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46573,7 +46573,7 @@
         <v>45016.51652777778</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46630,7 +46630,7 @@
         <v>45391.33564814815</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46687,7 +46687,7 @@
         <v>45391.33994212963</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46744,7 +46744,7 @@
         <v>45257.7815625</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>45693.5546875</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>45693.55793981482</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>45755.29855324074</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46982,7 +46982,7 @@
         <v>45455.5603587963</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47039,7 +47039,7 @@
         <v>44994.45324074074</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47096,7 +47096,7 @@
         <v>45340.86449074074</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47153,7 +47153,7 @@
         <v>45019.36079861111</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>45408.4359837963</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>45168</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47329,7 +47329,7 @@
         <v>45420.39489583333</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47386,7 +47386,7 @@
         <v>45703.40883101852</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47448,7 +47448,7 @@
         <v>45610.67653935185</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47505,7 +47505,7 @@
         <v>44725</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47562,7 +47562,7 @@
         <v>45129.80059027778</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47619,7 +47619,7 @@
         <v>45092</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47676,7 +47676,7 @@
         <v>44732</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47738,7 +47738,7 @@
         <v>44300</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47795,7 +47795,7 @@
         <v>45260.47619212963</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47857,7 +47857,7 @@
         <v>45260.47771990741</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47919,7 +47919,7 @@
         <v>45147.70241898148</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47976,7 +47976,7 @@
         <v>45642.5578125</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48033,7 +48033,7 @@
         <v>45096.90421296296</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48090,7 +48090,7 @@
         <v>45273</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48147,7 +48147,7 @@
         <v>45168</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48204,7 +48204,7 @@
         <v>44893</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48266,7 +48266,7 @@
         <v>45439.58288194444</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48323,7 +48323,7 @@
         <v>44258</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48380,7 +48380,7 @@
         <v>45071</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48437,7 +48437,7 @@
         <v>45081.91804398148</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48494,7 +48494,7 @@
         <v>45309.80746527778</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48551,7 +48551,7 @@
         <v>45048.37384259259</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48608,7 +48608,7 @@
         <v>45691.36478009259</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48665,7 +48665,7 @@
         <v>45225.76035879629</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>44862</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48784,7 +48784,7 @@
         <v>44994.45459490741</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48841,7 +48841,7 @@
         <v>45273.28496527778</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48898,7 +48898,7 @@
         <v>45247</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48955,7 +48955,7 @@
         <v>44438</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49012,7 +49012,7 @@
         <v>45019.37908564815</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49069,7 +49069,7 @@
         <v>44530</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49126,7 +49126,7 @@
         <v>45250.44482638889</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49183,7 +49183,7 @@
         <v>45681.58489583333</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49240,7 +49240,7 @@
         <v>45681.59599537037</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49297,7 +49297,7 @@
         <v>44252</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49359,7 +49359,7 @@
         <v>44971.36787037037</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49416,7 +49416,7 @@
         <v>45638.49185185185</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49478,7 +49478,7 @@
         <v>45216.54601851852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45524.63563657407</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45646.56480324074</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45318.64234953704</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45427</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45129.79834490741</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>44725</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45755.30921296297</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49934,7 +49934,7 @@
         <v>45755.31265046296</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49991,7 +49991,7 @@
         <v>44999.36128472222</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
         <v>44928.4900462963</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50105,7 +50105,7 @@
         <v>44928</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50167,7 +50167,7 @@
         <v>45566.4808449074</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50224,7 +50224,7 @@
         <v>45229</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>44827</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50338,7 +50338,7 @@
         <v>45153.62142361111</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50395,7 +50395,7 @@
         <v>45706.50239583333</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50452,7 +50452,7 @@
         <v>45628.72706018519</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>45771.58767361111</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50566,7 +50566,7 @@
         <v>45783.43402777778</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50623,7 +50623,7 @@
         <v>45789.49431712963</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50680,7 +50680,7 @@
         <v>45714.66180555556</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50737,7 +50737,7 @@
         <v>45727.37675925926</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50794,7 +50794,7 @@
         <v>45790.45359953704</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>44942</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>45735.35633101852</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45799.41569444445</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45638</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51104,7 +51104,7 @@
         <v>45649.56431712963</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51161,7 +51161,7 @@
         <v>45743</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51218,7 +51218,7 @@
         <v>45321.48475694445</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51275,7 +51275,7 @@
         <v>45637.58633101852</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51332,7 +51332,7 @@
         <v>45800.50819444445</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>45539.61945601852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>45803.44508101852</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>45803.44677083333</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51560,7 +51560,7 @@
         <v>45805.41023148148</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51617,7 +51617,7 @@
         <v>45810.44914351852</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51674,7 +51674,7 @@
         <v>45539</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51731,7 +51731,7 @@
         <v>45810.45978009259</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51788,7 +51788,7 @@
         <v>45604.64454861111</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51845,7 +51845,7 @@
         <v>45442.48394675926</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45810.579375</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45813.45994212963</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45812.57268518519</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52078,7 +52078,7 @@
         <v>45812.57512731481</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52135,7 +52135,7 @@
         <v>45812.5667824074</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52192,7 +52192,7 @@
         <v>45812.57081018519</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -575,7 +575,7 @@
         <v>44468</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45477.35888888889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45541</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>45399</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45541</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>45575</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44551</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>45369.35270833333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44822</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>45026</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>45400</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44490</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45466.63329861111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45810.41737268519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45113.60486111111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44468</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>45950</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>45723.44277777777</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44559</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>45385</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>44280</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44917.42984953704</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44278</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>44519.98922453704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44295</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44341</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44397.6375462963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44883.45847222222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45324</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>45399</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45393.63238425926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>45216.47987268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45810.43359953703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>45810.41100694444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>45147</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>45595</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>45399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45904.5654050926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>45400</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>45835.38121527778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>45009.35950231482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45594.41554398148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>45917.35021990741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>45225.75832175926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>45690.42671296297</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>45568.38174768518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>45016</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45566</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>44942</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>45755.3155787037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>45755.30336805555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45982.48730324074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44526</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>45169.50775462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>46050.80883101852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>45191</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45239</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>45690.4250925926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>45901</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>44876</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>45992</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45450</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45328</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44417</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>45702.46353009259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44980</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>45629.34431712963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>45635.37515046296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45604.64533564815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>45798.3421875</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44270.60216435185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44353</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44337</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44411</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44385.34373842592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44609.71396990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44477</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44449</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44827</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44827.63002314815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44833</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44520.0127662037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44356.47372685185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44452.60662037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44564</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44608</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44676</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44385.36721064815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44480</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44375</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44712.57193287037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44809.4018287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44385.31377314815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44831</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44532.64408564815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44536</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>44839.48378472222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44468</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44700.38892361111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44673</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44631.46762731481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44490.51148148148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44375</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44490</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44831</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44831.75778935185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44456</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44295</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>44308</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44488.42239583333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>44582</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>44833</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>44274</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44368.45892361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44266.58711805556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>44375</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>44594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44594</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44831.31585648148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>44432</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>44452.59549768519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44462.45162037037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>44526.35113425926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44490.5975925926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44420</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44438</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44447</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44357.37903935185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44428.88928240741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44296.53390046296</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44827</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44490.34951388889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44683</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44743.57672453704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44552</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44755</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44274.57768518518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44441</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44496</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44519.98100694444</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44519.99180555555</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44520.006875</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44473</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44532.58314814815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44532</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44713</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44617.44810185185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44375</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44552.67385416666</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>44741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44420</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44386</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44686</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44825.34015046297</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44526</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44263</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44643</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44426</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44612</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44434</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>44350.91193287037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44794</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44531.36721064815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44484</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44278</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44712</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44645</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44419</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>45216</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>45719.31096064814</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45197.60594907407</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45335</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>45335.45155092593</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44749</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>45340.92813657408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>45340.93671296296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>45247</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45174</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>45618</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45715.64556712963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>44781.91173611111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>45714.74612268519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>45702.47150462963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>45359.35763888889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45079</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>45744</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>45427</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>44901</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45755.29387731481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45420</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44816.82284722223</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>45360.69721064815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>45391.33564814815</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>45512</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44880</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>45406</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45129.80059027778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>45050.42804398148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>44963.62231481481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44928</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44438</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44862</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>45477.36623842592</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45271.41395833333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>45273.28496527778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>45477.37200231481</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>45477.36236111111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>45135.42358796296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>45168</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44470</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530.34732638889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44474.46346064815</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>45610.67653935185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>45439.56127314815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45414</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44916.57162037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45743.3609375</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44592</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45085</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45054</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45635.38275462963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45638.48775462963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44994.45459490741</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>45538</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45805.41023148148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45155.60460648148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45505</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>45604.64454861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45813.45608796296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45842.68615740741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45810.579375</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45810.44914351852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45442.48394675926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45175</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>45755.31439814815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44949.44762731482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45547.37052083333</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44999.36128472222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>45539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>45810.45978009259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>45267.28141203704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>45812.5667824074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>45677</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44565</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>45887.65018518519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>45127</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>45812.57081018519</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>45812.57268518519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>45812.57512731481</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>45889.67118055555</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>45813.45994212963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>45566</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>45691.36315972222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>45432</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>45026</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>45197.62081018519</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>45146.34890046297</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>45047</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>45894.65247685185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>45817.8397337963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>45818.50829861111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>45238</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>45566.4808449074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44258</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>45819.56673611111</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44975.87836805556</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44705.43685185185</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>45252.44798611111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>45824.46417824074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>45541.52309027778</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44939</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>45152.34190972222</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>45324</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19646,7 +19646,7 @@
         <v>45895.51850694444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>45826.38826388889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>45825</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>45825</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19874,7 +19874,7 @@
         <v>45615.62094907407</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>45180</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>45826.38912037037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>45776</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>45825</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>45748.37739583333</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>45827.44914351852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>45827.45063657407</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>45827.45379629629</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>45827.45690972222</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>45827.46381944444</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>45827.47229166667</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45827.45986111111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45827.40579861111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>45729.46997685185</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>45568.35815972222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>45827.38844907407</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>45901</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>45902.32299768519</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>45831.51925925926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>45622.35957175926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>45554.4112037037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>45715.6405787037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45903.49077546296</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>45225</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45903.67501157407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45831.30805555556</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45903.70535879629</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45831</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45723.4478125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45834.53106481482</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45615.59752314815</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45834.566875</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45834.65643518518</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45833.32947916666</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45905.43545138889</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45834.56986111111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>45908</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>45833</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>45905</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>44994.45324074074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45838.53700231481</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45908</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>45573.45638888889</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>45908</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>45909.54929398148</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>45910.45300925926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44830.4331712963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44831</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>45714.74789351852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>44998.50371527778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>45307</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>45680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>45909.54364583334</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>45909.55575231482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>45909.56019675926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>45372.51892361111</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>45842.68381944444</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>45081.91804398148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>45911.45987268518</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         <v>45908</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>45610.63998842592</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>45841</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>45841</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23567,7 +23567,7 @@
         <v>45908</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
         <v>44952.49959490741</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23681,7 +23681,7 @@
         <v>45169.61795138889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45843.54559027778</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23795,7 +23795,7 @@
         <v>45845.58313657407</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23852,7 +23852,7 @@
         <v>44999</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23909,7 +23909,7 @@
         <v>44831.66966435185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>45845.63357638889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>45912.65081018519</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>45841</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>45703.40883101852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>45642.5578125</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>45016.51652777778</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>45908</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>45169.62340277778</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>45916.54130787037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44981.40186342593</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44995</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>45852.91319444445</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45048.37384259259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45915.34211805555</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>45646.56480324074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>45238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>45660</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>45916.50309027778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>45511.45795138889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44999.48005787037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44375</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>45918</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25230,7 +25230,7 @@
         <v>45918</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         <v>45918</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44655</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>45621.44763888889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45813.44929398148</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>45455.53951388889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>45813.52047453704</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>45922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>44614</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>45923.5996875</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45923.60820601852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45923.58434027778</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45923.58523148148</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45923.5972337963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45923.59324074074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45923.61527777778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45923.61694444445</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45923.60203703704</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45923.60518518519</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45923.90313657407</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45618</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45184</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45185</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45834.54039351852</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>44526.36217592593</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45924.44417824074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45924.43762731482</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45923.61215277778</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45923.64208333333</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45923.64613425926</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45923.64820601852</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>45923.45716435185</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44811.44258101852</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45723.44018518519</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45925.64199074074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45926.35856481481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27292,7 +27292,7 @@
         <v>45925.64373842593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45925.6472337963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45925.64988425926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45925.65148148148</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>45925.64577546297</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27602,7 +27602,7 @@
         <v>45929.59570601852</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27659,7 +27659,7 @@
         <v>45929.60078703704</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>45149</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27778,7 +27778,7 @@
         <v>45929.63125</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27835,7 +27835,7 @@
         <v>45929.59108796297</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27897,7 +27897,7 @@
         <v>45713.37621527778</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>45929.59836805556</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>45929.60376157407</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45873.39606481481</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45931.63143518518</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45931.63373842592</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45656.40385416667</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44373</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44827</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44991.57855324074</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>45442.59461805555</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>45225.76035879629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>45826.52912037037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44971.36787037037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>45477.44527777778</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>45880.63050925926</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45852.91453703704</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45932.38508101852</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>45931.62912037037</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>44300</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29052,7 +29052,7 @@
         <v>45505</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29109,7 +29109,7 @@
         <v>45505</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29166,7 +29166,7 @@
         <v>45881.60173611111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29223,7 +29223,7 @@
         <v>45390</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29280,7 +29280,7 @@
         <v>45008.48836805556</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>45103</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29394,7 +29394,7 @@
         <v>45168</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>45168</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>45685.52724537037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>45936.61366898148</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>45936.66126157407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>45091.65386574074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29736,7 +29736,7 @@
         <v>45715.49478009259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29793,7 +29793,7 @@
         <v>45714.74952546296</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29855,7 +29855,7 @@
         <v>45936.60224537037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29912,7 +29912,7 @@
         <v>45936.61630787037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29969,7 +29969,7 @@
         <v>44935</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30026,7 +30026,7 @@
         <v>45884.5909375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30083,7 +30083,7 @@
         <v>45191.34582175926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30140,7 +30140,7 @@
         <v>45677</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45216</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30254,7 +30254,7 @@
         <v>45937.35290509259</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30311,7 +30311,7 @@
         <v>45884.45627314815</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30368,7 +30368,7 @@
         <v>45742.52042824074</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30425,7 +30425,7 @@
         <v>45937.3575462963</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44894</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30539,7 +30539,7 @@
         <v>44473</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30596,7 +30596,7 @@
         <v>45755.29065972222</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45755.30921296297</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>45755.31265046296</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>45940.56796296296</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>45197.40341435185</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>45194</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>45532.65594907408</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>45690.4284375</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>45939.35864583333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>45048</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>45071</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>45218.40142361111</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>45248</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>45944.41302083333</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>45944.40952546296</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>45019.36079861111</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>45019.37908564815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>45736</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44447</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         <v>45099</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31756,7 +31756,7 @@
         <v>45723.43553240741</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31818,7 +31818,7 @@
         <v>45905</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31875,7 +31875,7 @@
         <v>44468</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31937,7 +31937,7 @@
         <v>45945.64921296296</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31994,7 +31994,7 @@
         <v>45945.46298611111</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44564.80535879629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44685.48431712963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>45947.35896990741</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32232,7 +32232,7 @@
         <v>44593</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32289,7 +32289,7 @@
         <v>45013.3293287037</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32346,7 +32346,7 @@
         <v>45947.43758101852</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32408,7 +32408,7 @@
         <v>44928.49331018519</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32465,7 +32465,7 @@
         <v>45947.35587962963</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32527,7 +32527,7 @@
         <v>45952.49591435185</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32584,7 +32584,7 @@
         <v>45638.49185185185</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45467.48708333333</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45390</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45951.63486111111</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45096.90421296296</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44439</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45952.81768518518</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45273</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45952.81864583334</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45566.4780787037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>45958.67726851852</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45742.63379629629</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45034.31502314815</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>44896.59528935186</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45170.45482638889</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45569.49569444444</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45959.42605324074</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45959.48748842593</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>44951.89928240741</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45961.43423611111</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33734,7 +33734,7 @@
         <v>45961.44376157408</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33796,7 +33796,7 @@
         <v>45961.44804398148</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>45961.44523148148</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33920,7 +33920,7 @@
         <v>45961.4405787037</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33982,7 +33982,7 @@
         <v>45964</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34039,7 +34039,7 @@
         <v>45961.43260416666</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>45961.44221064815</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34163,7 +34163,7 @@
         <v>45961.43857638889</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34225,7 +34225,7 @@
         <v>45961.43681712963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>45340.86449074074</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44519.98293981481</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>45966.56153935185</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>45152.54458333334</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>45726.48642361111</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34577,7 +34577,7 @@
         <v>45121.60563657407</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34634,7 +34634,7 @@
         <v>45965.30561342592</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>45965.30861111111</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>45310</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>45259.37826388889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>45391.33994212963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>45218</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>45194</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>45182</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44994</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44529</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>45104.52766203704</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>45971</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>44889.47004629629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44530.35085648148</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35442,7 +35442,7 @@
         <v>45971.81322916667</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>45973.49765046296</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         <v>44473</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         <v>45971.83403935185</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>45594.44086805556</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>45318.64234953704</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>44546.67575231481</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>44516</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>45442.46103009259</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>45971.81769675926</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>45160.60979166667</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>45103.64168981482</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>45573.46162037037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>45252</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>45566.48396990741</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>45566.48729166666</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>45975.39666666667</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>45582</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>44966</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36535,7 +36535,7 @@
         <v>45979</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36592,7 +36592,7 @@
         <v>45016</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36649,7 +36649,7 @@
         <v>45723.44528935185</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36711,7 +36711,7 @@
         <v>45719.30990740741</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36768,7 +36768,7 @@
         <v>45439.58288194444</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36825,7 +36825,7 @@
         <v>44530</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>45980.65592592592</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36939,7 +36939,7 @@
         <v>45982.48302083334</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36996,7 +36996,7 @@
         <v>45982.45975694444</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         <v>45982.50164351852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37110,7 +37110,7 @@
         <v>45982.52304398148</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37167,7 +37167,7 @@
         <v>45189.84020833333</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37224,7 +37224,7 @@
         <v>44609.71230324074</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37281,7 +37281,7 @@
         <v>45156</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37338,7 +37338,7 @@
         <v>45047.82030092592</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45754.50134259259</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45086.64048611111</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45205</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45681.59012731481</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37623,7 +37623,7 @@
         <v>45168</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37680,7 +37680,7 @@
         <v>45054</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37737,7 +37737,7 @@
         <v>45420.39489583333</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37794,7 +37794,7 @@
         <v>45169.62482638889</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37851,7 +37851,7 @@
         <v>45341</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37908,7 +37908,7 @@
         <v>45729.481875</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37965,7 +37965,7 @@
         <v>45995.4803125</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38022,7 +38022,7 @@
         <v>44740.59510416666</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38079,7 +38079,7 @@
         <v>45999.4159375</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>45999.42359953704</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>45063</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>45624.98180555556</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38307,7 +38307,7 @@
         <v>46041</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>45194</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44260</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38483,7 +38483,7 @@
         <v>46044.60320601852</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>46044.54488425926</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>45715</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>46043.64524305556</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>46043.64356481482</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>46044.60550925926</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>45695.55989583334</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>46043.67475694444</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38944,7 +38944,7 @@
         <v>44547.48429398148</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39001,7 +39001,7 @@
         <v>46044.61240740741</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>44876</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>45132</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39172,7 +39172,7 @@
         <v>46005.75408564815</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39229,7 +39229,7 @@
         <v>46005.76400462963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39286,7 +39286,7 @@
         <v>45248.819375</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39343,7 +39343,7 @@
         <v>46008.62778935185</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39400,7 +39400,7 @@
         <v>45616.46331018519</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39462,7 +39462,7 @@
         <v>46050.8391550926</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39519,7 +39519,7 @@
         <v>46008.53185185185</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>46008.53971064815</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>46048.96581018518</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>46050.83611111111</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>46050.84315972222</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>45216.54601851852</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39861,7 +39861,7 @@
         <v>44732.66290509259</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39918,7 +39918,7 @@
         <v>46048.97947916666</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39975,7 +39975,7 @@
         <v>45693.56089120371</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40032,7 +40032,7 @@
         <v>46048.97453703704</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40089,7 +40089,7 @@
         <v>46048.99026620371</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         <v>46008.59555555556</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40203,7 +40203,7 @@
         <v>45748.61495370371</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40260,7 +40260,7 @@
         <v>46010.36451388889</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40317,7 +40317,7 @@
         <v>44719</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40374,7 +40374,7 @@
         <v>45175</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40431,7 +40431,7 @@
         <v>46051.42302083333</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40488,7 +40488,7 @@
         <v>45188.538125</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40545,7 +40545,7 @@
         <v>46052.60876157408</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40602,7 +40602,7 @@
         <v>45715.48555555556</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40659,7 +40659,7 @@
         <v>44349</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40721,7 +40721,7 @@
         <v>45681.58489583333</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40778,7 +40778,7 @@
         <v>45681.59599537037</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40835,7 +40835,7 @@
         <v>46010.35197916667</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40892,7 +40892,7 @@
         <v>46010.35797453704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40949,7 +40949,7 @@
         <v>46013.79969907407</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41006,7 +41006,7 @@
         <v>44725</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44819</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>44826</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41177,7 +41177,7 @@
         <v>45194</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>46058.68710648148</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>46058.65725694445</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>46058</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>46058.5681712963</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45239.30261574074</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45257.7815625</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41581,7 +41581,7 @@
         <v>45268.57443287037</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41638,7 +41638,7 @@
         <v>46062.5958912037</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41695,7 +41695,7 @@
         <v>45719.31196759259</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41752,7 +41752,7 @@
         <v>45735.63356481482</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>45271.88459490741</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41866,7 +41866,7 @@
         <v>45741.47322916667</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41928,7 +41928,7 @@
         <v>45378.62289351852</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41985,7 +41985,7 @@
         <v>45769.41255787037</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45399.44796296296</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45352.51495370371</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45309.80746527778</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45771.4725925926</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>46063.5630787037</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>46063.67090277778</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42399,7 +42399,7 @@
         <v>44818.62078703703</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45302.27971064814</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
         <v>44827</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
         <v>45726.75759259259</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42637,7 +42637,7 @@
         <v>46020.79466435185</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42694,7 +42694,7 @@
         <v>46066.55408564815</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>46065.40284722222</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42818,7 +42818,7 @@
         <v>45237</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42875,7 +42875,7 @@
         <v>46065.39902777778</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42937,7 +42937,7 @@
         <v>45271.40059027778</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42994,7 +42994,7 @@
         <v>44958.45609953703</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43051,7 +43051,7 @@
         <v>46066.35604166667</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43108,7 +43108,7 @@
         <v>45054</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43165,7 +43165,7 @@
         <v>45266.36511574074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43227,7 +43227,7 @@
         <v>46062</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43284,7 +43284,7 @@
         <v>46029.46618055556</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43341,7 +43341,7 @@
         <v>46030.66420138889</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43398,7 +43398,7 @@
         <v>46030.51246527778</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43455,7 +43455,7 @@
         <v>45266.45414351852</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43512,7 +43512,7 @@
         <v>45537.59931712963</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43569,7 +43569,7 @@
         <v>44496.5093287037</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43626,7 +43626,7 @@
         <v>45693.5546875</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43683,7 +43683,7 @@
         <v>45693.55793981482</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43740,7 +43740,7 @@
         <v>45610.65568287037</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43797,7 +43797,7 @@
         <v>45455.5603587963</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43854,7 +43854,7 @@
         <v>46020</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43911,7 +43911,7 @@
         <v>45328.46377314815</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43968,7 +43968,7 @@
         <v>44537.4409375</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>45168.62385416667</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44082,7 +44082,7 @@
         <v>46076.53053240741</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44139,7 +44139,7 @@
         <v>45209</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44196,7 +44196,7 @@
         <v>46031.57112268519</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44253,7 +44253,7 @@
         <v>46034.39335648148</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44310,7 +44310,7 @@
         <v>45477.3924537037</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44367,7 +44367,7 @@
         <v>46076.51600694445</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44424,7 +44424,7 @@
         <v>46034.34087962963</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44481,7 +44481,7 @@
         <v>46034</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44538,7 +44538,7 @@
         <v>46031.84211805555</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44595,7 +44595,7 @@
         <v>45412.30461805555</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44652,7 +44652,7 @@
         <v>45412.60458333333</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44709,7 +44709,7 @@
         <v>46034.33364583334</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44766,7 +44766,7 @@
         <v>45524.63563657407</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44823,7 +44823,7 @@
         <v>45691.36478009259</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44880,7 +44880,7 @@
         <v>45559.50409722222</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44937,7 +44937,7 @@
         <v>44484</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44999,7 +44999,7 @@
         <v>46078.39493055556</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45056,7 +45056,7 @@
         <v>45749.37798611111</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45113,7 +45113,7 @@
         <v>44651</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45170,7 +45170,7 @@
         <v>45755.29855324074</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45232,7 +45232,7 @@
         <v>45092</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45289,7 +45289,7 @@
         <v>45185.6368287037</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         <v>46035.41517361111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45403,7 +45403,7 @@
         <v>44825.32336805556</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45460,7 +45460,7 @@
         <v>44610</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45522,7 +45522,7 @@
         <v>46038.62665509259</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45579,7 +45579,7 @@
         <v>44502</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45636,7 +45636,7 @@
         <v>45575</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         <v>45147.70241898148</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45750,7 +45750,7 @@
         <v>44903.47134259259</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45807,7 +45807,7 @@
         <v>45153</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45864,7 +45864,7 @@
         <v>45153.62142361111</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45921,7 +45921,7 @@
         <v>44992.64321759259</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45978,7 +45978,7 @@
         <v>44824</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46035,7 +46035,7 @@
         <v>45412.45262731481</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46092,7 +46092,7 @@
         <v>45360.69631944445</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46154,7 +46154,7 @@
         <v>44498.49251157408</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46211,7 +46211,7 @@
         <v>45355</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46268,7 +46268,7 @@
         <v>45573.00284722223</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46325,7 +46325,7 @@
         <v>44882</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46382,7 +46382,7 @@
         <v>45041.6187037037</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46439,7 +46439,7 @@
         <v>45695.56664351852</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46501,7 +46501,7 @@
         <v>44482.36085648148</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46558,7 +46558,7 @@
         <v>44868.66078703704</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46615,7 +46615,7 @@
         <v>44994.54207175926</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46672,7 +46672,7 @@
         <v>44881.37020833333</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46729,7 +46729,7 @@
         <v>45081.89592592593</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         <v>44964.61778935185</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46843,7 +46843,7 @@
         <v>44970.8662962963</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46900,7 +46900,7 @@
         <v>45610.66920138889</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46957,7 +46957,7 @@
         <v>45481</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47014,7 +47014,7 @@
         <v>45180</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47076,7 +47076,7 @@
         <v>45152</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         <v>45104.82601851852</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47190,7 +47190,7 @@
         <v>45070.64072916667</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47247,7 +47247,7 @@
         <v>45703.40652777778</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47309,7 +47309,7 @@
         <v>45260.47619212963</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47371,7 +47371,7 @@
         <v>45260.47771990741</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47433,7 +47433,7 @@
         <v>45348.39001157408</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47490,7 +47490,7 @@
         <v>45695.56203703704</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47552,7 +47552,7 @@
         <v>45695.5696875</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47614,7 +47614,7 @@
         <v>45637</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47671,7 +47671,7 @@
         <v>45134</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>44827</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47785,7 +47785,7 @@
         <v>45569</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47842,7 +47842,7 @@
         <v>45180.46920138889</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         <v>45370.55523148148</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47956,7 +47956,7 @@
         <v>45013</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45153</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48070,7 +48070,7 @@
         <v>45484.55672453704</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48127,7 +48127,7 @@
         <v>44958.45834490741</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48184,7 +48184,7 @@
         <v>45488.47798611111</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48241,7 +48241,7 @@
         <v>44992.63921296296</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48298,7 +48298,7 @@
         <v>45628.73400462963</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48355,7 +48355,7 @@
         <v>45363.47704861111</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48412,7 +48412,7 @@
         <v>44893</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>44725</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45156</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45247</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45624.42489583333</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45049</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>44794</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45168</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48873,7 +48873,7 @@
         <v>44970.31702546297</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>45335.48046296297</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         <v>45352.49944444445</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45149</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49101,7 +49101,7 @@
         <v>45008.45369212963</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49158,7 +49158,7 @@
         <v>45209.55802083333</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49220,7 +49220,7 @@
         <v>45376.49780092593</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49277,7 +49277,7 @@
         <v>44732</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         <v>44960.49487268519</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49401,7 +49401,7 @@
         <v>45726.47065972222</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49463,7 +49463,7 @@
         <v>45726.56298611111</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49520,7 +49520,7 @@
         <v>45280</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49577,7 +49577,7 @@
         <v>45705.66491898148</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49634,7 +49634,7 @@
         <v>45250.44482638889</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49691,7 +49691,7 @@
         <v>44963.33652777778</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49748,7 +49748,7 @@
         <v>45408.4359837963</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49805,7 +49805,7 @@
         <v>45370.3781712963</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49862,7 +49862,7 @@
         <v>45259.3803125</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49919,7 +49919,7 @@
         <v>45730.33476851852</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49981,7 +49981,7 @@
         <v>45580.70136574074</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50038,7 +50038,7 @@
         <v>45161.48927083334</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50095,7 +50095,7 @@
         <v>45698.611875</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50152,7 +50152,7 @@
         <v>45447</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50209,7 +50209,7 @@
         <v>45477.42023148148</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50266,7 +50266,7 @@
         <v>45730.32494212963</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50328,7 +50328,7 @@
         <v>45715</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50385,7 +50385,7 @@
         <v>45016</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50442,7 +50442,7 @@
         <v>45129.79834490741</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50499,7 +50499,7 @@
         <v>45278.50741898148</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50556,7 +50556,7 @@
         <v>45190.34791666667</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50613,7 +50613,7 @@
         <v>45629.43613425926</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50670,7 +50670,7 @@
         <v>45229</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50727,7 +50727,7 @@
         <v>45735.35653935185</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50784,7 +50784,7 @@
         <v>45743.36407407407</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50841,7 +50841,7 @@
         <v>45743.38579861111</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50903,7 +50903,7 @@
         <v>45744</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50960,7 +50960,7 @@
         <v>45315.42144675926</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51017,7 +51017,7 @@
         <v>44928.4900462963</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51074,7 +51074,7 @@
         <v>45706.50239583333</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51131,7 +51131,7 @@
         <v>45628.72706018519</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51188,7 +51188,7 @@
         <v>45771.58767361111</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51245,7 +51245,7 @@
         <v>45783.43402777778</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51302,7 +51302,7 @@
         <v>45727.37675925926</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51359,7 +51359,7 @@
         <v>45714.66180555556</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51416,7 +51416,7 @@
         <v>45790.45359953704</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51493,7 +51493,7 @@
         <v>45789.49431712963</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51550,7 +51550,7 @@
         <v>45735.35633101852</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51607,7 +51607,7 @@
         <v>45800.50819444445</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51664,7 +51664,7 @@
         <v>44942</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51721,7 +51721,7 @@
         <v>45799.41569444445</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51783,7 +51783,7 @@
         <v>45638</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>45649.56431712963</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51897,7 +51897,7 @@
         <v>45803.44508101852</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51954,7 +51954,7 @@
         <v>45803.44677083333</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52011,7 +52011,7 @@
         <v>45743</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52068,7 +52068,7 @@
         <v>45321.48475694445</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52125,7 +52125,7 @@
         <v>45637.58633101852</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52182,7 +52182,7 @@
         <v>45539.61945601852</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
